--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richie.ruan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richie.ruan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
   <si>
     <t>句子</t>
   </si>
@@ -1285,6 +1285,699 @@
       </rPr>
       <t xml:space="preserve"> internet</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>many students  are now studying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (-scientice) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>technology, engneering and mathematics</t>
+    </r>
+  </si>
+  <si>
+    <t>every year, more and more  (courses become) available online</t>
+  </si>
+  <si>
+    <t>I will be back in several minutes</t>
+  </si>
+  <si>
+    <t>we encourge students to form application before the deadline.</t>
+  </si>
+  <si>
+    <t>you may not arragne the time when reading the text</t>
+  </si>
+  <si>
+    <t>you don't (need to) be encouraged to be a hero.</t>
+  </si>
+  <si>
+    <t>visiual aid is (really) helpful for rewising.</t>
+  </si>
+  <si>
+    <t>the res is vaule of my rearch represent the value of urban eager system</t>
+  </si>
+  <si>
+    <t>traffic noise is attens by high raise buildings</t>
+  </si>
+  <si>
+    <t>all sutdents joined  our class( in the) firs term</t>
+  </si>
+  <si>
+    <t>there is no ideal debate on this topic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">research shows that knowledge and experience are essential </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> creativity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">guide is qualified </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to lead the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> into the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mountains</t>
+    </r>
+  </si>
+  <si>
+    <t>marketing involes many activities including doing researches develoi products and promoting them</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of this research  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>presented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value of balanc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e  of the ecosystem</t>
+    </r>
+  </si>
+  <si>
+    <t>tuition fees will vary according to  the  fields of study</t>
+  </si>
+  <si>
+    <r>
+      <t>the main aim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to introduce educational</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reforms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a computer virus has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>destoryed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all my files</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no longer respond</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to any postal reference requests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">keeing organised class notes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>makes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> study time more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>efficient</t>
+    </r>
+  </si>
+  <si>
+    <t>children need books in their language with settings that reflect their lives</t>
+  </si>
+  <si>
+    <t>our students have  particpated in exchange programs to widen their horizons</t>
+  </si>
+  <si>
+    <t>in the new project you  have to present the different ltems</t>
+  </si>
+  <si>
+    <t>any game must be (properly (elaborated)</t>
+  </si>
+  <si>
+    <r>
+      <t>we are delight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the professor robert to join our faculty</t>
+    </r>
+  </si>
+  <si>
+    <t>it's compulsory to attend the  laboratory instrcution</t>
+  </si>
+  <si>
+    <t>please make an appointment with your tutor about the work</t>
+  </si>
+  <si>
+    <r>
+      <t>all sutdents can learn even though they have diffferent s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>peeds</t>
+    </r>
+  </si>
+  <si>
+    <t>while some people regard it as care, others regard it as reckless</t>
+  </si>
+  <si>
+    <t>the department has been reimbursed for  equipment</t>
+  </si>
+  <si>
+    <t>social media has significant impact on journalism</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">you may be charged  for a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional art </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supplies</t>
+    </r>
+  </si>
+  <si>
+    <t>they are most likely to achieveev more of these objectives</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>necessary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to attend the laboratory introduction</t>
+    </r>
+  </si>
+  <si>
+    <t>the full  list of undergraduate programs can be found on the webiste</t>
+  </si>
+  <si>
+    <t>student of the first year usually live on  campus.</t>
+  </si>
+  <si>
+    <t>the integration of archeologists' studies with community projects is widely encouraged</t>
+  </si>
+  <si>
+    <t>accountancy students need to submin their desertations this week</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the  university offers a wide range of courses according to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>your commitments</t>
+    </r>
+  </si>
+  <si>
+    <t>the library is only open on Mondays and fridays</t>
+  </si>
+  <si>
+    <t>be careful when you use english translaters</t>
+  </si>
+  <si>
+    <t>the key to clear writing is clarity of  thought</t>
+  </si>
+  <si>
+    <t>many government found that it was difficult to reduce  poverty in- (our) societ</t>
+  </si>
+  <si>
+    <t>the new lecture theater accommodates a large number of sutdents</t>
+  </si>
+  <si>
+    <t>the election of  president is held (once)  every four years</t>
+  </si>
+  <si>
+    <t>a good academic essay should have a clear argument</t>
+  </si>
+  <si>
+    <t>before write down your notes chieck the accuracy of your data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">certain films are hard to classified into single </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>genre</t>
+    </r>
+  </si>
+  <si>
+    <t>it is essential for companies to reduce the amout of harmful gases released into the atomosphere</t>
+  </si>
+  <si>
+    <t>marking is a very important activity for many new businessed</t>
+  </si>
+  <si>
+    <t>all of your arguments must be supported by evidence and relavant theories</t>
+  </si>
+  <si>
+    <t>a treaty deal  built betwwn  two countries was just announced</t>
+  </si>
+  <si>
+    <t>you will acuqire many skilles during the academic studies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the coming scientific research  require time and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dedication</t>
+    </r>
+  </si>
+  <si>
+    <t>political assumptions are based on the voting behaviors</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can't hand out my </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dissertation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this week</t>
+    </r>
+  </si>
+  <si>
+    <t>average earnings has risen slightly over the decades</t>
+  </si>
+  <si>
+    <r>
+      <t>his analysis study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> appears to be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> based on th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e false premise</t>
+    </r>
+  </si>
+  <si>
+    <t>the temporay library will be closed in the winter break.</t>
+  </si>
+  <si>
+    <t>the introducation of railway greatly contributed tothe revolution of train industry/</t>
+  </si>
+  <si>
+    <t>one student representative  will be selece from each clase</t>
+  </si>
+  <si>
+    <r>
+      <t>research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> found that trees can relieves stress and anxiety</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the excursion will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go ahead on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thusrday as planned</t>
+    </r>
+  </si>
+  <si>
+    <t>you must wear closed shoes when woring in the lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any gains from property must be promptly allicated  </t>
   </si>
 </sst>
 </file>
@@ -1369,7 +2062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1396,6 +2089,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -7847,8 +8543,8 @@
   <dimension ref="A1:G1528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8389,390 +9085,804 @@
       <c r="A32" s="9">
         <v>45044</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G32" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G33" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G34" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G35" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G36" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G37" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G38" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G39" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G40" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G41" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G42" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G43" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G44" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G45" s="6" t="e">
+    <row r="45" spans="4:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G46" s="6" t="e">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1">
+        <v>8</v>
+      </c>
+      <c r="G46" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G47" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="G48" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G49" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" s="6" t="e">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" s="6" t="e">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="1">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1">
+        <v>11</v>
+      </c>
+      <c r="G51" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G52" s="6" t="e">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="1">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1">
+        <v>10</v>
+      </c>
+      <c r="G52" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G53" s="6" t="e">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="1">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1">
+        <v>8</v>
+      </c>
+      <c r="G53" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G54" s="6" t="e">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>45056</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55" s="6" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="1">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1">
+        <v>12</v>
+      </c>
+      <c r="G55" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G56" s="6" t="e">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8</v>
+      </c>
+      <c r="G56" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G57" s="6" t="e">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1">
+        <v>9</v>
+      </c>
+      <c r="G57" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="6" t="e">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="1">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1">
+        <v>10</v>
+      </c>
+      <c r="G58" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="6" t="e">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="1">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1">
+        <v>12</v>
+      </c>
+      <c r="G59" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G60" s="6" t="e">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1">
+        <v>7</v>
+      </c>
+      <c r="G60" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G61" s="6" t="e">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="1">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7</v>
+      </c>
+      <c r="G61" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G62" s="6" t="e">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="1">
+        <v>7</v>
+      </c>
+      <c r="F62" s="1">
+        <v>9</v>
+      </c>
+      <c r="G62" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G63" s="6" t="e">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="1">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1">
+        <v>10</v>
+      </c>
+      <c r="G63" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G64" s="6" t="e">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1">
+        <v>8</v>
+      </c>
+      <c r="G64" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G65" s="6" t="e">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="1">
+        <v>9</v>
+      </c>
+      <c r="F65" s="1">
+        <v>12</v>
+      </c>
+      <c r="G65" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G66" s="6" t="e">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>8</v>
+      </c>
+      <c r="G66" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>1996</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G67" s="6" t="e">
         <f t="shared" ref="G67:G130" si="1">E67/F67</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="G68" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G69" s="6" t="e">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="1">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1">
+        <v>11</v>
+      </c>
+      <c r="G69" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G70" s="6" t="e">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="1">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1">
+        <v>12</v>
+      </c>
+      <c r="G70" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G71" s="6" t="e">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="1">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1">
+        <v>9</v>
+      </c>
+      <c r="G71" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G72" s="6" t="e">
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7</v>
+      </c>
+      <c r="G72" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G73" s="6" t="e">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="1">
+        <v>9</v>
+      </c>
+      <c r="F73" s="1">
+        <v>9</v>
+      </c>
+      <c r="G73" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G74" s="6" t="e">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="1">
+        <v>9</v>
+      </c>
+      <c r="F74" s="1">
+        <v>13</v>
+      </c>
+      <c r="G74" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G75" s="6" t="e">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="1">
+        <v>10</v>
+      </c>
+      <c r="F75" s="1">
+        <v>13</v>
+      </c>
+      <c r="G75" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G76" s="6" t="e">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="1">
+        <v>7</v>
+      </c>
+      <c r="F76" s="1">
+        <v>10</v>
+      </c>
+      <c r="G76" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G77" s="6" t="e">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="1">
+        <v>6</v>
+      </c>
+      <c r="F77" s="1">
+        <v>9</v>
+      </c>
+      <c r="G77" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G78" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G79" s="6" t="e">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1">
+        <v>9</v>
+      </c>
+      <c r="G79" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G80" s="6" t="e">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>16</v>
+      </c>
+      <c r="G80" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G81" s="6" t="e">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="1">
+        <v>7</v>
+      </c>
+      <c r="F81" s="1">
+        <v>9</v>
+      </c>
+      <c r="G81" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G82" s="6" t="e">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="1">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1">
+        <v>12</v>
+      </c>
+      <c r="G82" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G83" s="6" t="e">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>1980</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="1">
+        <v>9</v>
+      </c>
+      <c r="F83" s="1">
+        <v>10</v>
+      </c>
+      <c r="G83" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G84" s="6" t="e">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>45057</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="1">
+        <v>6</v>
+      </c>
+      <c r="F84" s="1">
+        <v>8</v>
+      </c>
+      <c r="G84" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G85" s="6" t="e">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="1">
+        <v>6</v>
+      </c>
+      <c r="F85" s="1">
+        <v>8</v>
+      </c>
+      <c r="G85" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G86" s="6" t="e">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="1">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1">
+        <v>8</v>
+      </c>
+      <c r="G86" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D87" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G87" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G88" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D89" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G89" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D90" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G90" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D91" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="G91" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="G92" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G93" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="G94" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="G95" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D96" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="G96" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -17372,5 +18482,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="380">
   <si>
     <t>句子</t>
   </si>
@@ -4237,6 +4237,733 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for assignments</t>
+    </r>
+  </si>
+  <si>
+    <t>apple is expected to announce several new products this fall.</t>
+  </si>
+  <si>
+    <t>you should be careful when searching internet sources.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">some people </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">argue that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nce is (zis) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more important than art</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>you ne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e ds (dz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)tudent identification to borrow books  from the library</t>
+    </r>
+  </si>
+  <si>
+    <t>if you need any assisitant  please get help from general office</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a lot of agriculture workers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>came</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the east end(伦敦东区) to look for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alternative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> work</t>
+    </r>
+  </si>
+  <si>
+    <t>professor tim lee invented world wild web</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all students and staff have the access to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scanner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s and printers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>the sport team me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> often practice on weekdays and play games on weekends</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">she is a expert in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18th century French literature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>newpagers across the country have been reporting stories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of (zəv) t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he president</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">student must </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> their hands before attending the engine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> workshop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">many people think they are more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>talented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than others</t>
+    </r>
+  </si>
+  <si>
+    <t>remember to bring the calcualte to class next week</t>
+  </si>
+  <si>
+    <r>
+      <t>the  postgraduate education depends entirely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(zen) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on private  funding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e /ði/ instant availability(即时性)(də veilə)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of information has radically changed people's lives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nalists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> need to work with a range of technologies</t>
+    </r>
+  </si>
+  <si>
+    <t>in computer science degree, there is new module in artificial intelligence.</t>
+  </si>
+  <si>
+    <t>the guidelines are due to be updated shortly</t>
+  </si>
+  <si>
+    <t>the student service center is located on the main campus behind the library</t>
+  </si>
+  <si>
+    <t>please cite several sources in your work.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">students must present a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> identification to enroll in (lin) this course</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">universities across the united kindom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>welcome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a range of students</t>
+    </r>
+  </si>
+  <si>
+    <t>scientists use new technologies in the labs</t>
+  </si>
+  <si>
+    <t>you can borrow 8 books from library at a time.</t>
+  </si>
+  <si>
+    <r>
+      <t>the university now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> faces serious chanllenge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of finance.</t>
+    </r>
+  </si>
+  <si>
+    <t>it's not always possible to find patterns in data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">understanding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acient poetry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is efficient for the project</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>the rising temp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>era</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ture has led to lower agricultural output</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>the topic next week on colonialism wwill be th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e nuclear disarmament</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lives cannot be scientifially </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> explained by theories</t>
+    </r>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>most of students need to be prepared for exams</t>
+  </si>
+  <si>
+    <t>application forms for shareing accommdations must be completed 2 months in advance.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">he was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constantly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> looking for way to bring industry an agriculture closer together</t>
+    </r>
+  </si>
+  <si>
+    <t>the university will set classie renavation to plan empty  theater</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">during </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> time people had large familie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s as an(s(ʌ)zə -nin) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insurance against children loss</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the assignment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>submission</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has been extented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by weeks</t>
+    </r>
+  </si>
+  <si>
+    <t>this coures provides valuable information for work experience.</t>
+  </si>
+  <si>
+    <t>none of alternatives are satisfactory.</t>
+  </si>
+  <si>
+    <t>students must register for shared accommdation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studing philosophs can help leaner think in new ways </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the police phones are difficult to call, so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crime rates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are high</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>modern art now does better than stoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ks as an(s(ʌ)sə -nin) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> investment</t>
     </r>
   </si>
 </sst>
@@ -5145,8 +5872,8 @@
   <dimension ref="A1:G1528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6587,6 +7314,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>1953</v>
+      </c>
       <c r="D107" s="1" t="s">
         <v>325</v>
       </c>
@@ -6596,318 +7326,465 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>45069</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="G108" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D109" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="G109" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="G110" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D111" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="G111" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D112" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="G112" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D113" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="G113" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D114" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="G114" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D115" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="G115" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D116" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="G116" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D117" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="G117" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D118" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="G118" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D119" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="G119" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>1937</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="G120" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D121" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="G121" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D122" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="G122" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D123" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="G123" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D124" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="G124" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D125" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="G125" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D126" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="G126" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D127" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="G127" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D128" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="G128" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D129" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="G129" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>1848</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="G130" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
+        <v>45070</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="G131" s="6" t="e">
         <f t="shared" ref="G131:G194" si="2">E131/F131</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D132" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="G132" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D133" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="G133" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="G134" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D135" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="G135" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D136" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="G136" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D137" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="G137" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D138" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="G138" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="G139" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D140" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="G140" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <v>1787</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="G141" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D142" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="G142" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D143" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="G143" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D144" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="G144" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D145" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="G145" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D146" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="G146" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D147" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="G147" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D148" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="G148" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D149" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="G149" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D150" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="G150" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G151" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G152" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G153" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G154" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G155" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G156" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G157" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G158" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G159" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G160" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -21858,7 +22735,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="819" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10230" tabRatio="819" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="RL" sheetId="10" r:id="rId6"/>
     <sheet name="SWT" sheetId="4" r:id="rId7"/>
     <sheet name="WE" sheetId="5" r:id="rId8"/>
-    <sheet name="RFIB" sheetId="12" r:id="rId9"/>
-    <sheet name="FIBRW" sheetId="13" r:id="rId10"/>
-    <sheet name="SST" sheetId="3" r:id="rId11"/>
-    <sheet name="SST Practice" sheetId="16" r:id="rId12"/>
-    <sheet name="SST Practise" sheetId="14" r:id="rId13"/>
-    <sheet name="WFD" sheetId="2" r:id="rId14"/>
-    <sheet name="FIBL" sheetId="15" r:id="rId15"/>
-    <sheet name="Reading--Choice" sheetId="11" r:id="rId16"/>
+    <sheet name="WE素材" sheetId="17" r:id="rId9"/>
+    <sheet name="RFIB" sheetId="12" r:id="rId10"/>
+    <sheet name="FIBRW" sheetId="13" r:id="rId11"/>
+    <sheet name="SST" sheetId="3" r:id="rId12"/>
+    <sheet name="SST Practice" sheetId="16" r:id="rId13"/>
+    <sheet name="SST Practise" sheetId="14" r:id="rId14"/>
+    <sheet name="WFD" sheetId="2" r:id="rId15"/>
+    <sheet name="FIBL" sheetId="15" r:id="rId16"/>
+    <sheet name="Reading--Choice" sheetId="11" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1015">
   <si>
     <t>句子</t>
   </si>
@@ -9215,6 +9216,570 @@
   </si>
   <si>
     <t>members can contribute to the association of operating firm/</t>
+  </si>
+  <si>
+    <t>开头</t>
+  </si>
+  <si>
+    <t>Nowadays, many headlines hit the newspaper on the topic of 主题</t>
+  </si>
+  <si>
+    <t>. This issue sparked a huge debate on （基于题目改写一个whether语句 whether television can be seen as a companion for lonely people）.</t>
+  </si>
+  <si>
+    <t>From my own point of view, I believe that （television serves many useful functions来源于题目的主题句）.</t>
+  </si>
+  <si>
+    <t>论述1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the one hand, there are numerous solid reasons why （ 支持论点television serves many useful functions）. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although potentially negative impacts of （television） should be taken into account, I still reckon that （television） has in many ways enriched people's lives. </t>
+  </si>
+  <si>
+    <t>. For instance, a well-known American psychologist once said that television can make our lives more interesting.</t>
+  </si>
+  <si>
+    <t>论述1举例</t>
+  </si>
+  <si>
+    <t>论述2</t>
+  </si>
+  <si>
+    <t>On the other hand, those who argue against the use of （television） hold a different opinion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. In the first place, it can be claimed that （television serves many useful functions）. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the second place, as far as schools are concerned, the ultimate aim of schools is to shape young people into responsible people in the future. </t>
+  </si>
+  <si>
+    <t>. As a result, local governments and international organizations should make a joint effort to reach a consensus to make sure this situation will develop in the right direction.</t>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
+    <t>In a nutshell, while there are many solid reasons on both sides, I still firmly believe that （自己支持的观点television serves many useful functions）.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which means that </t>
+  </si>
+  <si>
+    <t>观点类</t>
+  </si>
+  <si>
+    <t>是否同意</t>
+  </si>
+  <si>
+    <t>论证类</t>
+  </si>
+  <si>
+    <t>正反方</t>
+  </si>
+  <si>
+    <t>方案类</t>
+  </si>
+  <si>
+    <t>如何解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他 </t>
+  </si>
+  <si>
+    <t>选择，好坏</t>
+  </si>
+  <si>
+    <t>such as 名词性短语</t>
+  </si>
+  <si>
+    <t>Obviously, it is undoubtedly the case that （题干相关词）played a vital role in our society,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the statement that (填标题：主+谓) has attracted much attention from the public. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First and foremost, there are plenty of reasons why I believe that we should focus on （名词）, which is an increasingly potent argument. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In conclusion, never should we neglect what we have discussed above. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowadays, more and more people are focusing on （题干相关词） and I believe that the most crucial way to solve the problems is （名词）. </t>
+  </si>
+  <si>
+    <t>That speaks volumes(说明了一切) if we call for（名词）. I do hope that this essay can provide them with some insights.</t>
+  </si>
+  <si>
+    <t>教育，家庭，社会</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政府监管，技术 </t>
+  </si>
+  <si>
+    <t>工作，就业，经济</t>
+  </si>
+  <si>
+    <t>Nobody can deny the simple fact that if we emphasize （名词）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As far as I am concerned, I believe that </t>
+  </si>
+  <si>
+    <t>1.是否同意，</t>
+  </si>
+  <si>
+    <t>4. 题目主要问题描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on my own experience, we should maintain （名词） while others can stick with their own choices. </t>
+  </si>
+  <si>
+    <t>Therefore, the perspective that 重申第一个论点 is valid.</t>
+  </si>
+  <si>
+    <t>The latest research conducted by the United States has revealed that (一句话例子）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> which is probably due to （名词）/ the fact that （论述原因）.</t>
+  </si>
+  <si>
+    <t>However, I strongly maintain that we should attach great importance to（名词） because one of my friends has been repeatedly telling me that we need to gain （名词） as soon as possible.</t>
+  </si>
+  <si>
+    <t>An increasing number of people hold the view that (反对观点)</t>
+  </si>
+  <si>
+    <t>免修改结论</t>
+  </si>
+  <si>
+    <t>In conclusion,never should we neglect what we have discussed above, Nowadays, more and more people are focusing on (主题)</t>
+  </si>
+  <si>
+    <t>I do hope that this essay can provide them with some insights.</t>
+  </si>
+  <si>
+    <t>On the other hand，it also should be emphasized that (一句话论点）</t>
+  </si>
+  <si>
+    <t>医疗，健康，老龄化</t>
+  </si>
+  <si>
+    <t>people will spend more time with their families with a longer lift, which brings happiness</t>
+  </si>
+  <si>
+    <t>The problem of aging population will be aggravated, increasing the economic burden to families and societies</t>
+  </si>
+  <si>
+    <t>3. 一件事正反面,  these advancements may in return result in some tragedies 这些进步可能反过来导致一些悲剧</t>
+  </si>
+  <si>
+    <t>families might face heavy financial burden when one of its members is suffering from a severe disease</t>
+  </si>
+  <si>
+    <t>it costs a lot to buy new medicines, especially improrted ones.</t>
+  </si>
+  <si>
+    <t>focus on the health care of every citizen in our country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we are living an aging world </t>
+  </si>
+  <si>
+    <t>people live longer than before</t>
+  </si>
+  <si>
+    <t>eighty percent of paitents are complainning about the prices of newly inveted drugs/</t>
+  </si>
+  <si>
+    <t>the increase in sth will cause overpopulation</t>
+  </si>
+  <si>
+    <t>there will be more people than before if the average lif expectancy raises.</t>
+  </si>
+  <si>
+    <t>we should slow down the research and development of new drugs.</t>
+  </si>
+  <si>
+    <t>science affects every aspect of human beings.</t>
+  </si>
+  <si>
+    <t>some life was saved by the advanced techniques.</t>
+  </si>
+  <si>
+    <t>2. 解决方案 sth if sth is xxx is (not) suggested and other measures can be taken to solve the problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plays a significant role in hindering the development of students.</t>
+  </si>
+  <si>
+    <t>can narrow students' horizons. For example, a famous social scientist once said that universities deduct marks from students' work is not a good solution and it can block students' progress.</t>
+  </si>
+  <si>
+    <t>there is a clear indication that universities deduct marks from students' work is so detrimental for students. 对。。。有害的</t>
+  </si>
+  <si>
+    <t>Biggish City</t>
+  </si>
+  <si>
+    <r>
+      <t>The lecture is mainly about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the biggish city</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>. At the beginning,  the speaker emphasizes that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the biggish city involves some problems such as keeping the road and rail systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Secondly, the speaker also points out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that Plato created an ideal city in his text.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In conclusion,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fewer inhabitants are easier to feed without having to depend on outside sources.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Lastly, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the speaker believes that a large population would be harder to control</t>
+    </r>
+  </si>
+  <si>
+    <t>Journalism and Internet</t>
+  </si>
+  <si>
+    <r>
+      <t>The lecture mainly mentions that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> journalism is facing some challenges. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Thirdly, the speaker believes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that an ordinary video could be a new type of journalism. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In conclusion, this lecture talks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>about the change of journalism.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>At the beginning, the speaker emphasizes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that the rise of Internet has a great impact on journalism significantly. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secondly, the speaker also points out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that the Internet helps people gain information in various ways.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral absolutism </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This lecture was about moral objectivism and moral absolutism. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firstly, the speaker mentioned that a universal rule was valid for all people and situations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the speaker believed that there was a firm boundary between what was right and what was wrong. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furthermore, the speaker said that it was not subject to principles. </t>
+  </si>
+  <si>
+    <t>Finally, the speaker concluded that it was not dependent on situations. Overall, the lecture was informative.</t>
+  </si>
+  <si>
+    <t>Hook of essay</t>
+  </si>
+  <si>
+    <r>
+      <t>The lecture is mainly about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the hook sentence of essays. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">At the beginning, the speaker emphasizes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">that the hook for your essay often appears in the first sentence. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Secondly, the speaker also points out tha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t a writer needs to collect many materials first. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thirdly, the speaker believes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that the hook is a catchy sentence in the introduction. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In conclusion, the lecture mentions that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an excellent hook sentence is interesting.</t>
+    </r>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lecture is mainly about the Internet. </t>
+  </si>
+  <si>
+    <t>At the beginning, the speaker emphasizes that the Internet has the most complicated structure.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Secondly, the speaker also points out that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the Internet can be connected via a modem to a local exchange network. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirdly, the speaker believes that it takes energy to transmit information. </t>
+  </si>
+  <si>
+    <t>In conclusion, the devices use five percent of electricity and release the greenhouse gas into the atmosphere.</t>
+  </si>
+  <si>
+    <t>Approach and avoidance motivation</t>
+  </si>
+  <si>
+    <r>
+      <t>In conclusion, the lecture mentions that motivation is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> defined as direction of behavior.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thirdly, the speaker believes that avoidance indicates an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> undesired stimulus. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Secondly, the speaker also points out that approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> indicates a desired stimulus. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>At the beginning, the speaker emphasizes that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it is composed of three distinct components. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The lecture is mainly about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">different motivations. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9712,6 +10277,49 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9758,12 +10366,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9946,12 +10554,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10137,13 +10745,181 @@
         <v>817</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>1010</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
@@ -10409,11 +11185,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D600" sqref="D600"/>
     </sheetView>
@@ -21973,7 +22749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -22047,7 +22823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -28452,7 +29228,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28607,8 +29383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28697,15 +29473,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -28782,65 +29559,373 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" customWidth="1"/>
+    <col min="3" max="3" width="115.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>919</v>
+      </c>
+      <c r="B8" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>920</v>
+      </c>
+      <c r="B10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>925</v>
+      </c>
+      <c r="B15" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>928</v>
+      </c>
+      <c r="B19" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>930</v>
+      </c>
+      <c r="B20" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>932</v>
+      </c>
+      <c r="B21" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>934</v>
+      </c>
+      <c r="B22" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>911</v>
+      </c>
+      <c r="B25" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>947</v>
+      </c>
+      <c r="C27" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>915</v>
+      </c>
+      <c r="B32" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>920</v>
+      </c>
+      <c r="B38" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>925</v>
+      </c>
+      <c r="B44" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>956</v>
+      </c>
+      <c r="B48" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>958</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>237</v>
+        <v>960</v>
+      </c>
+      <c r="C1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C19" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>944</v>
       </c>
     </row>
   </sheetData>

--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richie/Github/EnglishSummary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richie/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F8F3AB-58D9-534E-9C1D-FA8208F6E6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7CEC76-F56B-8D4E-A493-491182500CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14200" tabRatio="819" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23820" windowHeight="14100" tabRatio="819" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -26,12 +26,15 @@
     <sheet name="FIBRW" sheetId="13" r:id="rId11"/>
     <sheet name="SST" sheetId="3" r:id="rId12"/>
     <sheet name="SST Practice" sheetId="16" r:id="rId13"/>
-    <sheet name="SST Practise" sheetId="14" r:id="rId14"/>
-    <sheet name="WFD" sheetId="2" r:id="rId15"/>
-    <sheet name="WFD错误句子" sheetId="19" r:id="rId16"/>
-    <sheet name="易混单词" sheetId="18" r:id="rId17"/>
-    <sheet name="FIBL" sheetId="15" r:id="rId18"/>
-    <sheet name="Reading--Choice" sheetId="11" r:id="rId19"/>
+    <sheet name="SST  Summary-Page1_0810" sheetId="20" r:id="rId14"/>
+    <sheet name="SST  Summary-Page2_0811" sheetId="21" r:id="rId15"/>
+    <sheet name="SST  Summary-Page3_0812" sheetId="22" r:id="rId16"/>
+    <sheet name="SST Practise" sheetId="14" r:id="rId17"/>
+    <sheet name="WFD" sheetId="2" r:id="rId18"/>
+    <sheet name="WFD错误句子" sheetId="19" r:id="rId19"/>
+    <sheet name="易混单词" sheetId="18" r:id="rId20"/>
+    <sheet name="FIBL" sheetId="15" r:id="rId21"/>
+    <sheet name="Reading--Choice" sheetId="11" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="1684">
   <si>
     <t>句子</t>
   </si>
@@ -8313,9 +8316,6 @@
     <t xml:space="preserve">Secondly, the speaker also mentions that the Internet is better than newspapers and television. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Internet is better than newspapers and television. </t>
-  </si>
-  <si>
     <t>Lastly, the speaker believes that the internet can link and connect to other journalists and makes him more efficient.</t>
   </si>
   <si>
@@ -12808,6 +12808,2502 @@
       </rPr>
       <t>vant</t>
     </r>
+  </si>
+  <si>
+    <t>发音纠正</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>发音</t>
+  </si>
+  <si>
+    <t>不是 /kreɪt/， 而是 /kriˈ|  eɪt/， 注意中间要分开</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> /ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kəm/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> /kri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˈeɪt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>是 wel , 不是where-com</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> /ˈ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hʌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ndrəd/ </t>
+    </r>
+  </si>
+  <si>
+    <t>不是hæn,  hʌn, 类似“夯”</t>
+  </si>
+  <si>
+    <t>prompting</t>
+  </si>
+  <si>
+    <t>不要和promoting 弄混</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ˈprɒm （p）tɪŋ/ </t>
+  </si>
+  <si>
+    <t>volcano</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vɑːl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈkeɪnoʊ/</t>
+    </r>
+  </si>
+  <si>
+    <t>题目</t>
+  </si>
+  <si>
+    <t>关键句</t>
+  </si>
+  <si>
+    <t>练习</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Internet is better than newspapers and television. </t>
+  </si>
+  <si>
+    <t>the origin of species.</t>
+  </si>
+  <si>
+    <t>natural selection.</t>
+  </si>
+  <si>
+    <t>he provided abundant evidence about evolution.</t>
+  </si>
+  <si>
+    <t>natural selection is the primary mechanism for the change</t>
+  </si>
+  <si>
+    <t>the paper is very important for understanding the genetic differences</t>
+  </si>
+  <si>
+    <t>新闻和互联网</t>
+  </si>
+  <si>
+    <t>物种起源</t>
+  </si>
+  <si>
+    <t>The given lecture talks about the origin of species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Firstly, the lecture gives information about natural selection. </t>
+  </si>
+  <si>
+    <t>Secondly, the lecture mentioned that he provided abundant evidence about evolution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After that, the lecture mentions that natural selection is the primary mechanism for the change. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, the lecture concludes that the paper is very important for understanding the genetic differences. </t>
+  </si>
+  <si>
+    <t>In conclusion, the lecture was very informative.</t>
+  </si>
+  <si>
+    <t>Fish are important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telescopes and eyes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> telescopes have mirrors to determine the features and details of images. </t>
+  </si>
+  <si>
+    <t>the telescope is widely used in the field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starlight cannot focus on the same points and the telescope covers a wide range of instruments</t>
+  </si>
+  <si>
+    <t>developing a mechanism.</t>
+  </si>
+  <si>
+    <t>Air pollution</t>
+  </si>
+  <si>
+    <t>the change in air pollution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lastly, the smoking disappeared after closing the factories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the air pollution caused over four thousand people deaths </t>
+  </si>
+  <si>
+    <t>In conclusion, the main source of air pollution is that people become more vehicle dependent.</t>
+  </si>
+  <si>
+    <t>BigFish city</t>
+  </si>
+  <si>
+    <t>the population of citie scould be numbered in the thousands</t>
+  </si>
+  <si>
+    <r>
+      <t>Secondly, the speaker also points out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that the population of citie scould be numbered in the thousands.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In conclusion,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  the speaker concludes that it makes a system easier to manage.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> the city should keep systems running</t>
+  </si>
+  <si>
+    <t>the big city</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the big city involves some problems.</t>
+  </si>
+  <si>
+    <r>
+      <t>The lecture is mainly about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the big city</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>. At the beginning,  the speaker emphasizes that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the big city involves some problems.</t>
+    </r>
+  </si>
+  <si>
+    <t>Journalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> journalism is facing some challenges. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Internet helps people gather information in various ways. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the rise of Internet has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a great impact(单数不加s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on journalism</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning, the speaker emphasised that the rise of the Internet should have a great impact on journalism. </t>
+  </si>
+  <si>
+    <t>Secondly, the speaker also pointed out that the Internet could help people gather information in various ways.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lastly, the speaker believed that an ordinary video could be a new type of journalism. </t>
+  </si>
+  <si>
+    <r>
+      <t>The lecture mainly m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">entioned（主句尽量用过去式） </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that journalism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should be（内容时态用情态动词避免错误） f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">acing some challenges.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Apology Question</t>
+  </si>
+  <si>
+    <t>it can uncover the truth.</t>
+  </si>
+  <si>
+    <t>three questions to make an apology</t>
+  </si>
+  <si>
+    <t>The lecture is mainly about three questions to make an apology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At the beginning, the speaker emphasizes that people want the company to tell the truth. </t>
+  </si>
+  <si>
+    <t>Secondly, the speaker also points out that it can uncover the truth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lastly, the speaker believes that there should be a path to describe what they are going to do. </t>
+  </si>
+  <si>
+    <t>In conclusion, the speaker concludes that it can give them confidence.</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Migrants make a huge contribution to Australia’s economy</t>
+  </si>
+  <si>
+    <t>Australia is a multicultural country.</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>his</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rich diversity is a strength</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a lot of people were born </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overseas（副词，不需要再加in）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The given lecture mentions that Australia is a multicultural country. </t>
+  </si>
+  <si>
+    <t>Firstly, the lecture mentions that Australia has the oldest culture of residents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After that, the speaker mentions that a lot of people were born overseas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the lecture emphasizes that migrants make a huge contribution to Australia’s economy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastly, the lecture mentions that this rich diversity is one of the greatest strengths. In conclusion, the lecture was informative.
+</t>
+  </si>
+  <si>
+    <t>The lecture is mainly about how to write an essay</t>
+  </si>
+  <si>
+    <t>Writing an essay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the hook for your essay often appears in the first sentence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Internet. </t>
+  </si>
+  <si>
+    <t>the Internet has the most complex structure.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Secondly, the speaker also points out that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the Internet can be connected to a local exchange network. </t>
+    </r>
+  </si>
+  <si>
+    <t>At the beginning, the speaker emphasizes that the Internet has the most complex structure.</t>
+  </si>
+  <si>
+    <t>In conclusion, those devices use five percent of electricity in the world.</t>
+  </si>
+  <si>
+    <t>The Internet</t>
+  </si>
+  <si>
+    <t>Approach and avoidance</t>
+  </si>
+  <si>
+    <r>
+      <t>Lastly, the speaker believes that avoidance indicates an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> undesired stimulus. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> motivation is defined as direction of behavior.</t>
+  </si>
+  <si>
+    <t>stimulus could be external or internal.</t>
+  </si>
+  <si>
+    <r>
+      <t>After that, the lecture mentions that motivation is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> defined as direction of behavior.</t>
+    </r>
+  </si>
+  <si>
+    <t>In conclusion, stimulus could be external or internal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boys and girls </t>
+  </si>
+  <si>
+    <t>girls and boys</t>
+  </si>
+  <si>
+    <t>the Applications of biology</t>
+  </si>
+  <si>
+    <t>The lecture mainly talks about biology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At the beginning, the speaker emphasizes that we are interested in doing things with biological systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the speaker also points out that it is the next level of genetic engineering. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastly, the speaker believes that scientists can cut from one and put in another. </t>
+  </si>
+  <si>
+    <t>In conclusion, the lecture concludes that scientists can create new organisms.</t>
+  </si>
+  <si>
+    <t>Chimpanzees</t>
+  </si>
+  <si>
+    <t>they choose the state of New York</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>legal rights of animals</t>
+    </r>
+  </si>
+  <si>
+    <t>the court does not approve our appeal</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>they believe it can help improve productivity</t>
+  </si>
+  <si>
+    <t>(学科前不加the)Biology</t>
+  </si>
+  <si>
+    <t>Newspaper</t>
+  </si>
+  <si>
+    <t>Some newspapers even disappeared</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the newspaper industry has been shrinking in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> last fifty years</t>
+    </r>
+  </si>
+  <si>
+    <t>运输</t>
+  </si>
+  <si>
+    <t>automatic vehicles</t>
+  </si>
+  <si>
+    <t>Humans are responsible for monitoring the vehicle</t>
+  </si>
+  <si>
+    <t>Several systems work together to control the vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The given lecture mainly talks about automatic vehicles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning, the speaker emphasizes that automatic vehicles would change transportation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the speaker also points out that there are six levels of automation including no automation and full automation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastly, the speaker believes that humans are responsible for monitoring the vehicle. </t>
+  </si>
+  <si>
+    <t>In conclusion, the lecture concludes that several systems work together to control those vehicles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are six levels of automation including no automation and full automation. </t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>sugar is the second most common ingredient</t>
+  </si>
+  <si>
+    <t>The given lecture mainly talks about sugar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At the beginning, the speaker emphasizes that there is sugar in a lot of foods, such as ice cream. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the speaker also points out that sugar is the second most common ingredient. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastly, the speaker believes that people will find sugar in beef stew. </t>
+  </si>
+  <si>
+    <t>In conclusion, the lecture concludes that there are some fresh potatoes and carrots.</t>
+  </si>
+  <si>
+    <r>
+      <t>there is sugar in a lot of foods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (such as 前可加可不加逗号， 但保险起见，可以加)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>such as ice cream</t>
+    </r>
+  </si>
+  <si>
+    <t>Stone Balls</t>
+  </si>
+  <si>
+    <t>mathematics</t>
+  </si>
+  <si>
+    <t>mathematics created a lot of the technology around us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The given lecture mainly talks about mathematics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning, the speaker emphasizes that those objects in the museum have a lot of mathematical significance. </t>
+  </si>
+  <si>
+    <t>Secondly, the speaker also points out that they might be part of a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lastly, the speaker believes that they are very nice in hand when you hold them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In conclusion, the lecture concludes that mathematics created a lot of the technology around us.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(普通名词组成行业前加the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )newspaper industry</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The given lecture talks about freedom and equality. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firstly, the speaker mentioned that there was an event to reverse this discrimination. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the speaker emphasised that a leader delivered the most influential speech in history. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After that, the lecture mentioned that African American civil rights can exist in island countries. </t>
+  </si>
+  <si>
+    <t>A huge surge of activism</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In conclusion, this lecture is very informative.</t>
+  </si>
+  <si>
+    <t>Finally, the lecture concluded that most people were denied basic rights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Internet is better than in a newspapers and on television. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Internet can link and connect to other journalism and makes him more efficient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Internet is very good.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">an event of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>activism</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> there was an event to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">reverse this discrimination. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">people support </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> freedom and equality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a leader </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">delivered the most influential speech in history. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">most people </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were denied basic rights.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Fishing maintains the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>marine ecosystems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and also</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> supports humans </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">over </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80 million tons of fish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are harvested annually for 20 years</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">some people are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>working in the fishing industry o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n a global scale. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we experience </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a global fishing crisis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>At the beginning,  the speaker emphasizes that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fogs and smoking were in big cities around the world.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> the main source of air pollution is that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>people become more vehicle dependent.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">smoking disappeared </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after closing the factories.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>the air pollution caused over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> four thousand people</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deaths  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fogs and smogs we</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">re in big cities </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>around the world.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">makes a system easier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to manage.</t>
+    </r>
+  </si>
+  <si>
+    <t>a large population is hard to control.</t>
+  </si>
+  <si>
+    <r>
+      <t>People</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> want the company to tell the truth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>there should b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e a path to describe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> what they are going  to do </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it can give them </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confidence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Human  behaviors</t>
+  </si>
+  <si>
+    <t>human behaviors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lecture is mainly about human behaviors. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning, the speaker emphasizes that people are surprised by the findings in recent research. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">people are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>surprised by/about the findings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in recent research. </t>
+    </r>
+  </si>
+  <si>
+    <t>In conclusion, the speaker concludes that the findings also have an impact on some scientific fields.</t>
+  </si>
+  <si>
+    <t>the findings also have an impact on some scientific fields.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>genes are the only factor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of appearance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>it also c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hanges the physical features</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the speaker also points out that genes are the only factor of appearance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastly, the speaker believes that it also changes the physical features. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mentions that Australia has the oldest culture.</t>
+    </r>
+  </si>
+  <si>
+    <t>--Migrants feel a great sense of belonging</t>
+  </si>
+  <si>
+    <r>
+      <t>a video could b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e a new type of journalism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>--your essay should have five paragraphs</t>
+  </si>
+  <si>
+    <r>
+      <t>--some people sea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rch for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>books and articles to read</t>
+    </r>
+  </si>
+  <si>
+    <t>essays / how to write an essay</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--a popular choic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e includes some f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amous last words.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>excellent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hook sentence is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interesting.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the hook is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>catchy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sentence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the paragraph.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> a writer needs t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o collect many materials first. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> it takes energy to t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ransmit information. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>those device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s use five percent </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of electricity in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the(只有唯一的事物，一定要加the) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>world.</t>
+    </r>
+  </si>
+  <si>
+    <t>--the Internet is a most powerful tool</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> the Internet can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be connected via a modem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to a local exchange network. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> different motivations. , 最后总结这个主题</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> it is composed of thr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ee distinct components. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">avoidance indicates an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">undesired stimulus. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>approach indicates a de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sired stimulus/reason. </t>
+    </r>
+  </si>
+  <si>
+    <t>--postive stimuli can lead to approach and negative stimuli can lead to avoidance.</t>
+  </si>
+  <si>
+    <r>
+      <t>girls have a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> higher level </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of English results than boys</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>they are different i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n learning styles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>male students are i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nterested in technological developments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>teachers should find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> different teaching approaches</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>it is the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> next level of genetic engineering</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>scientists can creat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e new organisms</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>we are interested in doing useful thing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s with biological systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">---they are curious about the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>natural world in the future.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ability/power to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>engineer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it and to design it</t>
+    </r>
+  </si>
+  <si>
+    <t>--currently, they can write DNA</t>
+  </si>
+  <si>
+    <r>
+      <t>animals have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cognitive capabilities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we found it/ the chimpanzee in a small room </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that was filled with cages.</t>
+    </r>
+  </si>
+  <si>
+    <t>competition can drive employees to improve performance/ motivate employees/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">people in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> top ten could be promoted</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Competition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> makes it impossible for creation /It is impossible for creation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it increased the cash flow /only a few newspapers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have positive cash flow.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>some news published</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> three days per week</t>
+    </r>
+  </si>
+  <si>
+    <t>--the economic model has an impact on the newspaper industry.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatic vehicles will change  transportation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(虚拟不可数名词不加the)</t>
+    </r>
+  </si>
+  <si>
+    <t>--Vehicles and levels three and up are considered highly automated vehicles</t>
+  </si>
+  <si>
+    <t>--sugar comes right after peanuts</t>
+  </si>
+  <si>
+    <t>people wouldn't expect to find sugar in beef stew</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> there are some</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fresh potatoes and carrots.</t>
+    </r>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <r>
+      <t>those objects in the mus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eum have a lot of mathematical significance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">they might be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>part of a game</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>they are ver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y nice in hand when you hold them</t>
+    </r>
+  </si>
+  <si>
+    <t>learning memory</t>
+  </si>
+  <si>
+    <t>it starts with the brain and functions</t>
+  </si>
+  <si>
+    <t>it hits the save button on those new memories.</t>
+  </si>
+  <si>
+    <t>you cannot absorb new memories.</t>
+  </si>
+  <si>
+    <t>people need to sleep before learning and after learning.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(虚词不用the) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>learning memory</t>
+    </r>
+  </si>
+  <si>
+    <t>The given lecture mainly talks about learning memory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At the beginning, the speaker emphasizes that people need to sleep before learning and after learning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the speaker also points out that it starts with the brain and functions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastly, the speaker believes that it hits the save button on those new memories. </t>
+  </si>
+  <si>
+    <t>In conclusion, the lecture concludes that you cannot absorb new memories.</t>
+  </si>
+  <si>
+    <t>Honeybees</t>
+  </si>
+  <si>
+    <t>honeybees do dance to direct other bees</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a station is to mimic a source of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nectar</t>
+    </r>
+  </si>
+  <si>
+    <t>the headbutt is a warning signal.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">they stopped bees dancing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>because of dangers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Social skills</t>
+  </si>
+  <si>
+    <t>many of these skills are vital in making friendships.</t>
+  </si>
+  <si>
+    <t>it is also important for individuals to understand feelings.</t>
+  </si>
+  <si>
+    <t>young people do not have strong relationships</t>
+  </si>
+  <si>
+    <t>this can improve their thinking skills</t>
+  </si>
+  <si>
+    <t>poems</t>
+  </si>
+  <si>
+    <t>poems / poetry</t>
+  </si>
+  <si>
+    <t>poems tell some ancient stories</t>
+  </si>
+  <si>
+    <t>the English language is difficult to understand.</t>
+  </si>
+  <si>
+    <t>poems should be an important part of culture.</t>
+  </si>
+  <si>
+    <r>
+      <t>we should learn more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(more做代词，about后为修饰more的) a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bout literature knowledge.</t>
+    </r>
+  </si>
+  <si>
+    <t>food wasting</t>
+  </si>
+  <si>
+    <t>food waste</t>
+  </si>
+  <si>
+    <t>there are two sources of food waste</t>
+  </si>
+  <si>
+    <t>the majority of food waste comes from supermarkets</t>
+  </si>
+  <si>
+    <t>avoiding food waste can result in a win-win scenario.</t>
+  </si>
+  <si>
+    <r>
+      <t>over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y (注意拼写) million tons of food ends up in landfills every year.</t>
+    </r>
+  </si>
+  <si>
+    <t>the United States is considered as the biggest food wasting country.
+ (be considered + 形容、名词，某种特质，主观评价)
+ (be considered as + 名词，某种事务，客观评价)</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>leadership can make a significant difference.</t>
+  </si>
+  <si>
+    <t>top leaders are visible in their exercise of power.</t>
+  </si>
+  <si>
+    <t>leaders can motivate people's energies.</t>
+  </si>
+  <si>
+    <t>women have provided casual leadership behind the scenes/situation.</t>
+  </si>
+  <si>
+    <t>the ocean and fish</t>
+  </si>
+  <si>
+    <t>there are some species of fish that are endangered.</t>
+  </si>
+  <si>
+    <t>the government set up a network to protect the environment.</t>
+  </si>
+  <si>
+    <t>some human activities are regulated.</t>
+  </si>
+  <si>
+    <t>some developing countries lack management and resources.</t>
+  </si>
+  <si>
+    <t>engineering</t>
+  </si>
+  <si>
+    <t>complicated systems</t>
+  </si>
+  <si>
+    <t>the inspirations are from your daily life</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> you need to consider your personal experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> you need to consider more about the ris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the complicated systems are relatively reliable</t>
+  </si>
+  <si>
+    <t>the stock market</t>
+  </si>
+  <si>
+    <t>the stock market is where investors connect to buy investments</t>
+  </si>
+  <si>
+    <t>traditional companies used stock to raise money</t>
+  </si>
+  <si>
+    <t>modern companies are big enough to earn money</t>
+  </si>
+  <si>
+    <t>there are some different uses of the stock market.</t>
+  </si>
+  <si>
+    <t>luxury brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the standard business response is that they are more exclusive. </t>
+  </si>
+  <si>
+    <t>it is all relative</t>
+  </si>
+  <si>
+    <t>you can make a strong argument</t>
+  </si>
+  <si>
+    <t>the answer is that it depends on who you talk to.</t>
+  </si>
+  <si>
+    <t>there is a small cluster of more expensive brands</t>
+  </si>
+  <si>
+    <t>luxury brands</t>
+  </si>
+  <si>
+    <t>Rejection</t>
+  </si>
+  <si>
+    <t>it can be a disappointing experience.</t>
+  </si>
+  <si>
+    <t>many things have changed today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rejections </t>
+  </si>
+  <si>
+    <t>rejections will lead to a better result and good for the career path.</t>
+  </si>
+  <si>
+    <t>investors will learn how to attract young researchers.</t>
+  </si>
+  <si>
+    <t>the global financial crisis</t>
+  </si>
+  <si>
+    <t>the global economy has become unfair.</t>
+  </si>
+  <si>
+    <t>the global market economy will only be accepted in the different regions.</t>
+  </si>
+  <si>
+    <t>the emergence of global capitalism has a new set of risks</t>
+  </si>
+  <si>
+    <t>it concerns common ethical values and standards</t>
+  </si>
+  <si>
+    <t>the first inhabitants in Australia</t>
+  </si>
+  <si>
+    <t>the people were long established and the sea levels again rose.</t>
+  </si>
+  <si>
+    <t>Australia first began to adopt a policy</t>
+  </si>
+  <si>
+    <t>The majority of immigrants came from Asia</t>
+  </si>
+  <si>
+    <t>通篇过去式</t>
+  </si>
+  <si>
+    <t>this migration was achieved during the closing stages.</t>
+  </si>
+  <si>
+    <t>migrations</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Mars is the second smallest planet in the solar system.</t>
+  </si>
+  <si>
+    <t>there is the largest volcano.</t>
+  </si>
+  <si>
+    <t>Mars may have large scale of water coverage.</t>
+  </si>
+  <si>
+    <t>the season cycles  are similar to (similar to +物、人， similar with +人) those of earth</t>
+  </si>
+  <si>
+    <r>
+      <t>Mars （</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>星球不用the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness </t>
+  </si>
+  <si>
+    <t>happiness economics</t>
+  </si>
+  <si>
+    <t>other things affect people's well-being.</t>
+  </si>
+  <si>
+    <t>the environment and equality are very important.</t>
+  </si>
+  <si>
+    <r>
+      <t>some basic things are remarkably consistent across the world</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.(世界要加the)</t>
+    </r>
+  </si>
+  <si>
+    <t>the survey surveys what makes people happy.</t>
+  </si>
+  <si>
+    <t>the English language</t>
+  </si>
+  <si>
+    <t>English is not a pure language.</t>
+  </si>
+  <si>
+    <t>English has borrowed from many lauguages.</t>
+  </si>
+  <si>
+    <t>there are two things closely connected.</t>
+  </si>
+  <si>
+    <t>we are learning about the history of English people.</t>
+  </si>
+  <si>
+    <t>DNA structure</t>
+  </si>
+  <si>
+    <t>people have believed that genes have an impact on physical behaviors</t>
+  </si>
+  <si>
+    <t>the findings have impacted modern understanding.</t>
+  </si>
+  <si>
+    <t>the findings can benefit biology and neurosciences.</t>
+  </si>
+  <si>
+    <t>the DNA structure</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>genetics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ungovernable field</t>
+    </r>
+  </si>
+  <si>
+    <t>abstraction</t>
+  </si>
+  <si>
+    <t>this is an important layer of the computer.</t>
+  </si>
+  <si>
+    <t>we are talking about the origin of symbolic systems</t>
+  </si>
+  <si>
+    <t>there are some words and languages.</t>
+  </si>
+  <si>
+    <t>they want to communicate with others</t>
+  </si>
+  <si>
+    <t>bees</t>
+  </si>
+  <si>
+    <t>they are real and supported by good scientific evidence.</t>
+  </si>
+  <si>
+    <t>bees have  declined</t>
+  </si>
+  <si>
+    <t>the drivers of the decline depend on species.</t>
+  </si>
+  <si>
+    <t>we are aware of the problem and the effects could be absolutely huge.</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>a recent survey is about diet.</t>
+  </si>
+  <si>
+    <t>the researchers found that some volunteers have a body fat change.</t>
+  </si>
+  <si>
+    <t>some people lost a significant amount of fat.</t>
+  </si>
+  <si>
+    <t>the study concludes that there are two explanations</t>
+  </si>
+  <si>
+    <t>honeybees do dancing to direct other bees</t>
+  </si>
+  <si>
+    <t>this  can also improve their thinking skills</t>
   </si>
   <si>
     <t>permanent</t>
@@ -12886,7 +15382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12965,6 +15461,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
@@ -13003,7 +15518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -13057,6 +15572,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13362,7 +15883,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -13377,7 +15898,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -13483,14 +16004,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13618,7 +16139,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>763</v>
       </c>
@@ -13671,8 +16192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13704,7 +16225,7 @@
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
-        <v>781</v>
+        <v>1353</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>780</v>
@@ -13712,318 +16233,318 @@
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>787</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C14" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="C15" s="17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>810</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>972</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>978</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="17" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="17" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>984</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="17" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="17" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B47" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>990</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B50" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>996</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B56" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B57" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B59" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="17" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="17" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="17" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -14034,262 +16555,1093 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E151" sqref="E151:E155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="139.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="13"/>
+    <col min="2" max="2" width="28" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="96.33203125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>298</v>
-      </c>
-      <c r="B26" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>309</v>
-      </c>
-      <c r="B36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>315</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="13" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="13" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="13" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>3</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="13" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>4</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="17" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="17"/>
+      <c r="E28" s="13" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="13" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="13" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="13" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>6</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="13" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="13" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>7</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="13" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="13" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="13" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="13" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>8</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="15" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="13" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="15" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>9</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="15" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>10</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="13" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D65" s="13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D67" s="15" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
+        <v>11</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="13" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="21" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
+        <v>12</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="13" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="21" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D81" s="21" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D82" s="13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D83" s="13" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D84" s="13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="21" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="13">
+        <v>13</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D88" s="21" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D89" s="13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D90" s="13" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D91" s="13" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D92" s="13" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="13">
+        <v>14</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D96" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D97" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D98" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="21" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D100" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D101" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="13">
+        <v>15</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D104" s="13" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D105" s="13" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D106" s="13" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="13" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="13">
+        <v>16</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D111" s="21" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D112" s="21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="13" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="21" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="13">
+        <v>17</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="13" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="13" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="13" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="13" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="13">
+        <v>18</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D125" s="13" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="13" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D127" s="13" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D128" s="13" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="13">
+        <v>19</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D131" s="21" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D132" s="13" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D133" s="13" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="13" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="13" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="13">
+        <v>20</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="13" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D139" s="13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D140" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D141" s="21" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D142" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="13">
+        <v>21</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D145" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D146" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D147" s="21" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D148" s="13" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D149" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="13">
+        <v>22</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D152" s="13" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D153" s="13" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D154" s="13" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D155" s="13" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E155" s="13" t="s">
+        <v>1472</v>
       </c>
     </row>
   </sheetData>
@@ -14300,6 +17652,1711 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:E145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D140" sqref="D140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="13"/>
+    <col min="2" max="2" width="28" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="96.33203125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="13" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="13" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="13" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="13" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>3</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>4</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="17" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="17" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="17" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D27" s="17" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D31" s="17" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="13" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="13" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="13" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="13" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>6</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="13" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="13" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="13" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="13" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>7</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="13" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="13" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="13" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="13" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>8</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="13" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="13" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="15" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="13" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="15"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>9</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="13" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="15" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="13" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="13" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>10</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="13" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="13" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="13" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="13" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="15" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
+        <v>11</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="13" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="13" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="13" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="21" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
+        <v>12</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="21" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="13" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="21" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="13" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="21"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="13">
+        <v>13</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="21" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="13" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="13" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="13" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="13">
+        <v>14</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="13" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="13" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="13" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" s="13" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="13">
+        <v>15</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103" s="13" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" s="13" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105" s="13" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106" s="13" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="13">
+        <v>16</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D109" s="13" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D110" s="13" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D111" s="13" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" s="13" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="13">
+        <v>17</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D115" s="13" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D116" s="13" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D117" s="13" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="13" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="13">
+        <v>18</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D122" s="13" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D123" s="13" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D124" s="13" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D125" s="13" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="13">
+        <v>19</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D128" s="13" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D129" s="13" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D130" s="13" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D131" s="13" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="13">
+        <v>20</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="13" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D136" s="13" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="13" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E139" s="18"/>
+    </row>
+    <row r="145" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E145" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="13"/>
+    <col min="2" max="2" width="28" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="96.33203125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="13" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="13" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="13" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="13" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>3</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>4</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="17" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="17" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="17" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D27" s="17" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D31" s="17" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="13" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="13" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="13" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="13" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>6</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="13" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="13" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="13" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="13" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>7</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="13" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="13" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="13" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="13" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>8</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="13" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="13" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="15" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="13" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="15"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>9</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="13" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="15" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="13" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="13" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>10</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="13" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="13" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="13" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="13" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="15" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
+        <v>11</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="13" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="13" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="13" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="21" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="13">
+        <v>12</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="21" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="13" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="21" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="13" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="21"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="13">
+        <v>13</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="21" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="13" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="13" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="13" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="13">
+        <v>14</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="13" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="13" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="13" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" s="13" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="13">
+        <v>15</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D103" s="13" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" s="13" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105" s="13" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106" s="13" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="13">
+        <v>16</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D109" s="13" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D110" s="13" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D111" s="13" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" s="13" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="13">
+        <v>17</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D115" s="13" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D116" s="13" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D117" s="13" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="13" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="13">
+        <v>18</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D122" s="13" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D123" s="13" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D124" s="13" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D125" s="13" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="13">
+        <v>19</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D128" s="13" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D129" s="13" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D130" s="13" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D131" s="13" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="13">
+        <v>20</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="13" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D136" s="13" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="13" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E139" s="18"/>
+    </row>
+    <row r="145" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E145" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="139.83203125" customWidth="1"/>
+    <col min="3" max="3" width="87.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>298</v>
+      </c>
+      <c r="B26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G1529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19444,7 +24501,7 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D508" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G508" s="6" t="e">
         <f t="shared" si="7"/>
@@ -19453,7 +24510,7 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D509" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G509" s="6" t="e">
         <f t="shared" si="7"/>
@@ -19489,7 +24546,7 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D513" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G513" s="6" t="e">
         <f t="shared" si="7"/>
@@ -19501,7 +24558,7 @@
         <v>45107</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G514" s="6" t="e">
         <f t="shared" si="7"/>
@@ -19510,7 +24567,7 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D515" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G515" s="6" t="e">
         <f t="shared" si="7"/>
@@ -19519,7 +24576,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D516" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G516" s="6" t="e">
         <f t="shared" ref="G516:G579" si="8">E516/F516</f>
@@ -19528,7 +24585,7 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D517" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G517" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19537,7 +24594,7 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D518" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G518" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19546,7 +24603,7 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D519" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G519" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19555,7 +24612,7 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D520" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G520" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19564,7 +24621,7 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D521" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G521" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19573,7 +24630,7 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D522" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G522" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19582,7 +24639,7 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D523" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G523" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19591,7 +24648,7 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D524" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G524" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19600,7 +24657,7 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D525" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G525" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19609,7 +24666,7 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D526" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G526" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19618,7 +24675,7 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D527" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G527" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19627,7 +24684,7 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D528" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G528" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19636,7 +24693,7 @@
     </row>
     <row r="529" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D529" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G529" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19645,7 +24702,7 @@
     </row>
     <row r="530" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D530" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G530" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19654,7 +24711,7 @@
     </row>
     <row r="531" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D531" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G531" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19663,7 +24720,7 @@
     </row>
     <row r="532" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D532" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G532" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19672,7 +24729,7 @@
     </row>
     <row r="533" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D533" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G533" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19681,7 +24738,7 @@
     </row>
     <row r="534" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D534" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G534" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19690,7 +24747,7 @@
     </row>
     <row r="535" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D535" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G535" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19699,7 +24756,7 @@
     </row>
     <row r="536" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D536" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G536" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19708,7 +24765,7 @@
     </row>
     <row r="537" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D537" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G537" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19717,7 +24774,7 @@
     </row>
     <row r="538" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D538" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G538" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19726,7 +24783,7 @@
     </row>
     <row r="539" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D539" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G539" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19735,7 +24792,7 @@
     </row>
     <row r="540" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D540" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G540" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19744,7 +24801,7 @@
     </row>
     <row r="541" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D541" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G541" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19753,7 +24810,7 @@
     </row>
     <row r="542" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D542" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G542" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19762,7 +24819,7 @@
     </row>
     <row r="543" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D543" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G543" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19771,7 +24828,7 @@
     </row>
     <row r="544" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D544" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G544" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19780,7 +24837,7 @@
     </row>
     <row r="545" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D545" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G545" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19789,7 +24846,7 @@
     </row>
     <row r="546" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D546" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G546" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19798,7 +24855,7 @@
     </row>
     <row r="547" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D547" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G547" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19807,7 +24864,7 @@
     </row>
     <row r="548" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D548" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G548" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19816,7 +24873,7 @@
     </row>
     <row r="549" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D549" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G549" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19825,7 +24882,7 @@
     </row>
     <row r="550" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D550" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G550" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19834,7 +24891,7 @@
     </row>
     <row r="551" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D551" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G551" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19843,7 +24900,7 @@
     </row>
     <row r="552" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D552" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G552" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19852,7 +24909,7 @@
     </row>
     <row r="553" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D553" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G553" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19861,7 +24918,7 @@
     </row>
     <row r="554" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D554" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G554" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19870,7 +24927,7 @@
     </row>
     <row r="555" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D555" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G555" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19879,7 +24936,7 @@
     </row>
     <row r="556" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D556" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G556" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19888,7 +24945,7 @@
     </row>
     <row r="557" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D557" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G557" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19897,7 +24954,7 @@
     </row>
     <row r="558" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D558" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G558" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19906,7 +24963,7 @@
     </row>
     <row r="559" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D559" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G559" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19915,7 +24972,7 @@
     </row>
     <row r="560" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D560" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G560" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19924,7 +24981,7 @@
     </row>
     <row r="561" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D561" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G561" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19933,7 +24990,7 @@
     </row>
     <row r="562" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D562" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G562" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19942,7 +24999,7 @@
     </row>
     <row r="563" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D563" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G563" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19951,7 +25008,7 @@
     </row>
     <row r="564" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D564" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G564" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19960,7 +25017,7 @@
     </row>
     <row r="565" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D565" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G565" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19969,7 +25026,7 @@
     </row>
     <row r="566" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D566" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G566" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19978,7 +25035,7 @@
     </row>
     <row r="567" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D567" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G567" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19987,7 +25044,7 @@
     </row>
     <row r="568" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D568" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G568" s="6" t="e">
         <f t="shared" si="8"/>
@@ -19996,7 +25053,7 @@
     </row>
     <row r="569" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D569" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G569" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20005,7 +25062,7 @@
     </row>
     <row r="570" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D570" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G570" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20014,7 +25071,7 @@
     </row>
     <row r="571" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D571" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G571" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20023,7 +25080,7 @@
     </row>
     <row r="572" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D572" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G572" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20032,7 +25089,7 @@
     </row>
     <row r="573" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D573" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G573" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20041,7 +25098,7 @@
     </row>
     <row r="574" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D574" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G574" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20050,7 +25107,7 @@
     </row>
     <row r="575" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D575" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G575" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20059,7 +25116,7 @@
     </row>
     <row r="576" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D576" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G576" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20068,7 +25125,7 @@
     </row>
     <row r="577" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D577" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G577" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20077,7 +25134,7 @@
     </row>
     <row r="578" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D578" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G578" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20086,7 +25143,7 @@
     </row>
     <row r="579" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D579" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G579" s="6" t="e">
         <f t="shared" si="8"/>
@@ -20095,7 +25152,7 @@
     </row>
     <row r="580" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D580" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G580" s="6" t="e">
         <f t="shared" ref="G580:G643" si="9">E580/F580</f>
@@ -20104,7 +25161,7 @@
     </row>
     <row r="581" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D581" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G581" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20113,7 +25170,7 @@
     </row>
     <row r="582" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D582" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G582" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20122,7 +25179,7 @@
     </row>
     <row r="583" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D583" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G583" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20131,7 +25188,7 @@
     </row>
     <row r="584" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D584" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G584" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20140,7 +25197,7 @@
     </row>
     <row r="585" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D585" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G585" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20149,7 +25206,7 @@
     </row>
     <row r="586" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D586" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G586" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20158,7 +25215,7 @@
     </row>
     <row r="587" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D587" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G587" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20167,7 +25224,7 @@
     </row>
     <row r="588" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D588" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G588" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20176,7 +25233,7 @@
     </row>
     <row r="589" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D589" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G589" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20185,7 +25242,7 @@
     </row>
     <row r="590" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D590" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G590" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20194,7 +25251,7 @@
     </row>
     <row r="591" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D591" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G591" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20203,7 +25260,7 @@
     </row>
     <row r="592" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D592" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G592" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20212,7 +25269,7 @@
     </row>
     <row r="593" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D593" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G593" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20221,7 +25278,7 @@
     </row>
     <row r="594" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D594" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G594" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20230,7 +25287,7 @@
     </row>
     <row r="595" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D595" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G595" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20239,7 +25296,7 @@
     </row>
     <row r="596" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D596" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G596" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20248,7 +25305,7 @@
     </row>
     <row r="597" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D597" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G597" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20257,7 +25314,7 @@
     </row>
     <row r="598" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D598" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G598" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20266,7 +25323,7 @@
     </row>
     <row r="599" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D599" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G599" s="6" t="e">
         <f t="shared" si="9"/>
@@ -20275,7 +25332,7 @@
     </row>
     <row r="600" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D600" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G600" s="6" t="e">
         <f t="shared" si="9"/>
@@ -25862,8 +30919,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25877,252 +30934,252 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
   </sheetData>
@@ -26131,12 +31188,197 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="72.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26158,1051 +31400,1051 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1031</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1032</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>1313</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>1314</v>
-      </c>
       <c r="M1" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>1325</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1033</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>1034</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>1315</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>1085</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>1316</v>
-      </c>
       <c r="M2" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>1327</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>1328</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>1129</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>1036</v>
-      </c>
       <c r="E3" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>1112</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>1113</v>
-      </c>
       <c r="H3" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>1320</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>1321</v>
-      </c>
       <c r="J3" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>1331</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>1330</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>1332</v>
-      </c>
       <c r="P3" s="13" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1037</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>1038</v>
-      </c>
       <c r="E4" s="13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>1115</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>1116</v>
-      </c>
       <c r="H4" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>1322</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>1323</v>
-      </c>
       <c r="J4" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>1334</v>
+        <v>1681</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>1335</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>1040</v>
-      </c>
       <c r="E5" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>1101</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>1102</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>1336</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>1041</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>1042</v>
-      </c>
       <c r="E6" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>1106</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>1107</v>
-      </c>
       <c r="J6" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>1061</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>1043</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>1044</v>
-      </c>
       <c r="E7" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>1108</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>1109</v>
-      </c>
       <c r="J7" s="13" t="s">
-        <v>1333</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>1117</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>1047</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>1048</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>1049</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>1050</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1051</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>1052</v>
-      </c>
       <c r="E11" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>1170</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>1053</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>1054</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1055</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>1061</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1057</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>1059</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>1063</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>1075</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1080</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>1083</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>1091</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>1093</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>1095</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>1097</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>1099</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>1101</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>1106</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>1108</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1119</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>1124</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>1122</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>1127</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>1129</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>1131</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>1139</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B47" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1145</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>1147</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>1149</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B51" s="13" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>1151</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B52" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>1153</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>1155</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>1157</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>1160</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>1161</v>
-      </c>
       <c r="D56" s="13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>1162</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>1163</v>
-      </c>
       <c r="D57" s="13" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>1175</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>1178</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>1180</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>1291</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>1210</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C64" s="13" t="s">
         <v>1212</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>1214</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>1270</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>1218</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>1220</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>1293</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>1222</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>1224</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>1227</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>1230</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>1232</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="13" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>1254</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>1256</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>1258</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>1262</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>1264</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>1266</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C89" s="13" t="s">
         <v>1268</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>1236</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>1238</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>1240</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>1242</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>1246</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="13" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>1248</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C96" s="13" t="s">
         <v>1250</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>1244</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>1252</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>1260</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="13" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>1308</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>1310</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>1311</v>
       </c>
     </row>
   </sheetData>
@@ -27211,8 +32453,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -27285,8 +32527,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27348,130 +32590,6 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -33748,12 +38866,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -33761,7 +38879,7 @@
         <v>172</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -33785,7 +38903,7 @@
         <v>177</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -33822,7 +38940,7 @@
         <v>177</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -33832,12 +38950,12 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -33856,7 +38974,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34032,7 +39150,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -34063,232 +39181,232 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1" t="s">
         <v>906</v>
-      </c>
-      <c r="B1" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>909</v>
+      </c>
+      <c r="B5" t="s">
         <v>910</v>
-      </c>
-      <c r="B5" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>914</v>
+      </c>
+      <c r="B10" t="s">
         <v>915</v>
-      </c>
-      <c r="B10" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>919</v>
+      </c>
+      <c r="B15" t="s">
         <v>920</v>
-      </c>
-      <c r="B15" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>922</v>
+      </c>
+      <c r="B19" t="s">
         <v>923</v>
-      </c>
-      <c r="B19" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>924</v>
+      </c>
+      <c r="B20" t="s">
         <v>925</v>
-      </c>
-      <c r="B20" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>926</v>
+      </c>
+      <c r="B21" t="s">
         <v>927</v>
-      </c>
-      <c r="B21" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>928</v>
+      </c>
+      <c r="B22" t="s">
         <v>929</v>
-      </c>
-      <c r="B22" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B25" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>940</v>
+      </c>
+      <c r="C27" t="s">
         <v>941</v>
-      </c>
-      <c r="C27" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B32" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B44" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>948</v>
+      </c>
+      <c r="B48" t="s">
         <v>949</v>
-      </c>
-      <c r="B48" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -34311,98 +39429,98 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C1" t="s">
         <v>953</v>
-      </c>
-      <c r="C1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>

--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richie/Github/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7CEC76-F56B-8D4E-A493-491182500CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5067F3B5-C21A-BB48-96D0-837DB81467EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23820" windowHeight="14100" tabRatio="819" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="23820" windowHeight="14100" tabRatio="819" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -29,12 +29,13 @@
     <sheet name="SST  Summary-Page1_0810" sheetId="20" r:id="rId14"/>
     <sheet name="SST  Summary-Page2_0811" sheetId="21" r:id="rId15"/>
     <sheet name="SST  Summary-Page3_0812" sheetId="22" r:id="rId16"/>
-    <sheet name="SST Practise" sheetId="14" r:id="rId17"/>
-    <sheet name="WFD" sheetId="2" r:id="rId18"/>
-    <sheet name="WFD错误句子" sheetId="19" r:id="rId19"/>
-    <sheet name="易混单词" sheetId="18" r:id="rId20"/>
-    <sheet name="FIBL" sheetId="15" r:id="rId21"/>
-    <sheet name="Reading--Choice" sheetId="11" r:id="rId22"/>
+    <sheet name="SST  Summary-Page4_0812 (2)" sheetId="23" r:id="rId17"/>
+    <sheet name="SST Practise" sheetId="14" r:id="rId18"/>
+    <sheet name="WFD" sheetId="2" r:id="rId19"/>
+    <sheet name="WFD错误句子" sheetId="19" r:id="rId20"/>
+    <sheet name="易混单词" sheetId="18" r:id="rId21"/>
+    <sheet name="FIBL" sheetId="15" r:id="rId22"/>
+    <sheet name="Reading--Choice" sheetId="11" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1803">
   <si>
     <t>句子</t>
   </si>
@@ -15300,12 +15301,6 @@
     <t>the study concludes that there are two explanations</t>
   </si>
   <si>
-    <t>honeybees do dancing to direct other bees</t>
-  </si>
-  <si>
-    <t>this  can also improve their thinking skills</t>
-  </si>
-  <si>
     <t>permanent</t>
   </si>
   <si>
@@ -15376,13 +15371,456 @@
       </rPr>
       <t>sate</t>
     </r>
+  </si>
+  <si>
+    <t>11-new</t>
+  </si>
+  <si>
+    <t>energy consumption</t>
+  </si>
+  <si>
+    <t>the concentration of greenhouse gases will continue to rise.</t>
+  </si>
+  <si>
+    <t>many organizations will cut gas emissions to reduce the impact.</t>
+  </si>
+  <si>
+    <t>these simple change help keep the Earth cooler.</t>
+  </si>
+  <si>
+    <r>
+      <t>the rising temperature will increase o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>n(星球上用on) t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he planet.</t>
+    </r>
+  </si>
+  <si>
+    <t>some people learned about  global warming.</t>
+  </si>
+  <si>
+    <t>the brand</t>
+  </si>
+  <si>
+    <t>they are going to want you to remember their brands.</t>
+  </si>
+  <si>
+    <t>customers are smart and they know what they are going to buy.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">brands are esstential to our business to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>deliver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> customer values</t>
+    </r>
+  </si>
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>there is an engineering contradiction. (工业矛盾)</t>
+  </si>
+  <si>
+    <t>you can get information from the face</t>
+  </si>
+  <si>
+    <t>people can look at what is the special object</t>
+  </si>
+  <si>
+    <t>how people recognise objects</t>
+  </si>
+  <si>
+    <t>we are able to extract the information from our environment</t>
+  </si>
+  <si>
+    <t>it allows us to put a name to a face.</t>
+  </si>
+  <si>
+    <t>the national museum</t>
+  </si>
+  <si>
+    <t>there is an exhibition</t>
+  </si>
+  <si>
+    <t>it is good at creation and communication</t>
+  </si>
+  <si>
+    <t>it creates a kind of history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The given lecture mainly talks about the national museum. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning, the speaker emphasizes that some tools and techniques could interest your students. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, the speaker also points out that it is good at creation and communication. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastly, the speaker believes that it creates a kind of history and they are trying to understand people. </t>
+  </si>
+  <si>
+    <t>In conclusion, the lecture concludes that there is an exhibition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some tools and techniques could interest your students. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it creates a kind of history and they are trying to understand people. </t>
+  </si>
+  <si>
+    <t>there are two descriptions</t>
+  </si>
+  <si>
+    <t>The symbolic system is from the computer system</t>
+  </si>
+  <si>
+    <t>people are trying to communicate with others</t>
+  </si>
+  <si>
+    <t>people accepted body language.</t>
+  </si>
+  <si>
+    <t>it is an important part of developing a computer</t>
+  </si>
+  <si>
+    <t>wildlifes</t>
+  </si>
+  <si>
+    <t>managing fish resources is important,</t>
+  </si>
+  <si>
+    <t>wildlife</t>
+  </si>
+  <si>
+    <t>they are talking about aniamlas, such as fish.</t>
+  </si>
+  <si>
+    <t>it is the most important income for economies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the speaker did </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>research (研究不可数，研究报告才可数)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Africa.</t>
+    </r>
+  </si>
+  <si>
+    <t>architectures</t>
+  </si>
+  <si>
+    <t>A bad building has an impact on the people.</t>
+  </si>
+  <si>
+    <t>the buildings are not more beautiful.</t>
+  </si>
+  <si>
+    <t>it could cause us trouble.</t>
+  </si>
+  <si>
+    <t>the book suggests how architecture works/ what may be going to be wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Internet was invented by people who are good at programming. </t>
+  </si>
+  <si>
+    <t>the email system</t>
+  </si>
+  <si>
+    <t>the email system was designed by some students</t>
+  </si>
+  <si>
+    <t>the email system cannot consider security.</t>
+  </si>
+  <si>
+    <t>the Internet can achieve  many things</t>
+  </si>
+  <si>
+    <t>email authentication is a technical solution.</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>design of buildings is important in textbooks.</t>
+  </si>
+  <si>
+    <t>architecture can create the physical environment.</t>
+  </si>
+  <si>
+    <t>buildings should adapt to the new world.</t>
+  </si>
+  <si>
+    <t>--the ground floor must ensure that the building has higher levels.</t>
+  </si>
+  <si>
+    <t>there are some important parts in the environment.</t>
+  </si>
+  <si>
+    <t>Globalization</t>
+  </si>
+  <si>
+    <t>globalization</t>
+  </si>
+  <si>
+    <t>globalization is a misunderstood concept.</t>
+  </si>
+  <si>
+    <t>it means the rise of interconnection between countries.</t>
+  </si>
+  <si>
+    <t>the financial and banking systems have become close.</t>
+  </si>
+  <si>
+    <t>the integration of economic activities would be across borders.</t>
+  </si>
+  <si>
+    <t>good ideas</t>
+  </si>
+  <si>
+    <t>a good idea should have several features.</t>
+  </si>
+  <si>
+    <t>the great idea should be unique.</t>
+  </si>
+  <si>
+    <t>all ideas are a combination of some smaller ideas</t>
+  </si>
+  <si>
+    <t>Unique  ideas are inspired by basic things</t>
+  </si>
+  <si>
+    <t>the prediction of cosmology</t>
+  </si>
+  <si>
+    <t>there are some sound scientific reasons.</t>
+  </si>
+  <si>
+    <t>some stars were older than the universe.</t>
+  </si>
+  <si>
+    <t>the universe began a big bang and it was about ten billion years old.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">some ideas are about how </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> big bang happened.</t>
+    </r>
+  </si>
+  <si>
+    <t>we know how the universe began.</t>
+  </si>
+  <si>
+    <t>dropping from school</t>
+  </si>
+  <si>
+    <t>some boys leave school early.</t>
+  </si>
+  <si>
+    <t>the main reason is that the market provides many job opportunities.</t>
+  </si>
+  <si>
+    <t>they can get part time jobs.</t>
+  </si>
+  <si>
+    <t>dropping from school is not bad for boys and is bad for girls.</t>
+  </si>
+  <si>
+    <t>there is no evidence for the existence of water.</t>
+  </si>
+  <si>
+    <t>mountains are found on Mars</t>
+  </si>
+  <si>
+    <t>Mars might be the most ideal destination.</t>
+  </si>
+  <si>
+    <t>Mars is a very interesting and important place.</t>
+  </si>
+  <si>
+    <t>Language Levels</t>
+  </si>
+  <si>
+    <t>language Levels</t>
+  </si>
+  <si>
+    <t>you are looking for basic vocaulary.</t>
+  </si>
+  <si>
+    <t>they may not have words for uncle and aunt.</t>
+  </si>
+  <si>
+    <t>you take the hundred most universal notions</t>
+  </si>
+  <si>
+    <t>most people know what snow is.</t>
+  </si>
+  <si>
+    <t>--you take basic vocabularies and languages that you think are related.</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>they could build the city from scratch.</t>
+  </si>
+  <si>
+    <t>those camps were laid out in a geometric plan.</t>
+  </si>
+  <si>
+    <t>Rome's buildings</t>
+  </si>
+  <si>
+    <t>the structure was in a very methodical way.</t>
+  </si>
+  <si>
+    <t>it was based on military strategy and planning.</t>
+  </si>
+  <si>
+    <t>we all live in a global village.</t>
+  </si>
+  <si>
+    <t>we can share ideas and consume cultural artifacts.</t>
+  </si>
+  <si>
+    <t>more and more young people are rejecting their culture.</t>
+  </si>
+  <si>
+    <t>the world is shrinking.</t>
+  </si>
+  <si>
+    <t>the frozen foods were becoming big.</t>
+  </si>
+  <si>
+    <t>canned food</t>
+  </si>
+  <si>
+    <t>there are a lot of canned foods.</t>
+  </si>
+  <si>
+    <t>people could buy appliances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the great depression was the beginning of modern food technology.(泛指科技，而不是某一项技术)</t>
+  </si>
+  <si>
+    <t>debts</t>
+  </si>
+  <si>
+    <t>the free market and globalization are important.</t>
+  </si>
+  <si>
+    <t>they can only buy expensive seeds.</t>
+  </si>
+  <si>
+    <t>the seed companies sell those seeds</t>
+  </si>
+  <si>
+    <t>the debt today is so high and the debt comes from a seed.</t>
+  </si>
+  <si>
+    <t>flower's colors</t>
+  </si>
+  <si>
+    <t>flower's color can be a signal.</t>
+  </si>
+  <si>
+    <t>bees also use color to know the temperature.</t>
+  </si>
+  <si>
+    <t>bees cannot fly if  they are too cold.</t>
+  </si>
+  <si>
+    <t>bees will choose the warmer flower.</t>
+  </si>
+  <si>
+    <t>a study was published in the journal</t>
+  </si>
+  <si>
+    <t>babies' smiles</t>
+  </si>
+  <si>
+    <t>they want to interact with a parent.</t>
+  </si>
+  <si>
+    <t>the study is in the journal.</t>
+  </si>
+  <si>
+    <t>mothers and babies have their interactions and they want to experience smiling.</t>
+  </si>
+  <si>
+    <t>your babies may not be able to feed itself.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15484,6 +15922,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -15518,7 +15963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -15577,6 +16022,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -16555,13 +17006,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E151" sqref="E151:E155"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17128,519 +17579,555 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="13">
-        <v>12</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>1413</v>
-      </c>
-    </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>1683</v>
+      </c>
       <c r="D79" s="13" t="s">
-        <v>1523</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D80" s="21" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>991</v>
+      <c r="D80" s="13" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D81" s="21" t="s">
-        <v>1518</v>
+      <c r="D81" s="13" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D82" s="13" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>992</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D83" s="13" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>993</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D84" s="13" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D85" s="21" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="13">
-        <v>13</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D88" s="21" t="s">
-        <v>1526</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="13">
+        <v>12</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>1414</v>
+      </c>
       <c r="D89" s="13" t="s">
-        <v>1417</v>
+        <v>1519</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D90" s="13" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>1418</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D91" s="13" t="s">
-        <v>1524</v>
+      <c r="D91" s="21" t="s">
+        <v>1517</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D92" s="13" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="13">
-        <v>14</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>362</v>
-      </c>
+      <c r="D92" s="21" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D93" s="13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D94" s="13" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D95" s="13" t="s">
-        <v>1528</v>
+        <v>1415</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D96" s="13" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D97" s="13" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>1004</v>
+      <c r="D96" s="21" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="13">
+        <v>13</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>1421</v>
+      </c>
       <c r="D98" s="13" t="s">
-        <v>1530</v>
+        <v>1416</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>1423</v>
+        <v>996</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D99" s="21" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D100" s="13" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D101" s="13" t="s">
-        <v>1425</v>
+        <v>1527</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>1427</v>
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D102" s="13" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="13">
-        <v>15</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>1428</v>
-      </c>
       <c r="D103" s="13" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D104" s="13" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D105" s="13" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1525</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="13">
+        <v>14</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>362</v>
+      </c>
       <c r="D106" s="13" t="s">
-        <v>1535</v>
+        <v>1528</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D107" s="13" t="s">
-        <v>1536</v>
+        <v>1529</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D108" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="13">
-        <v>16</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>362</v>
-      </c>
       <c r="D109" s="13" t="s">
-        <v>1442</v>
+        <v>1530</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D110" s="13" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>1432</v>
+      <c r="D110" s="21" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D111" s="21" t="s">
-        <v>1541</v>
+      <c r="D111" s="13" t="s">
+        <v>1424</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D112" s="21" t="s">
-        <v>1540</v>
+      <c r="D112" s="13" t="s">
+        <v>1425</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D113" s="13" t="s">
-        <v>1537</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D114" s="21" t="s">
-        <v>1542</v>
+      <c r="A114" s="13">
+        <v>15</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D115" s="13" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>1435</v>
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="13" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="13" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="13">
-        <v>17</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>1436</v>
-      </c>
       <c r="D118" s="13" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D119" s="13" t="s">
-        <v>1437</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="13">
+        <v>16</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>362</v>
+      </c>
       <c r="D120" s="13" t="s">
-        <v>1543</v>
+        <v>1442</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D121" s="13" t="s">
-        <v>1544</v>
+        <v>1539</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>1432</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D122" s="13" t="s">
-        <v>1439</v>
+      <c r="D122" s="21" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="13">
-        <v>18</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>1440</v>
-      </c>
       <c r="D124" s="13" t="s">
-        <v>1440</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D125" s="13" t="s">
-        <v>1545</v>
+      <c r="D125" s="21" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D126" s="13" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="13">
+        <v>17</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D130" s="13" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D131" s="13" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D132" s="13" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D133" s="13" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="13">
+        <v>18</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D136" s="13" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D137" s="13" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D127" s="13" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D138" s="13" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D128" s="13" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D139" s="13" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="13">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="13">
         <v>19</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B141" s="13" t="s">
         <v>1443</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D141" s="13" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D131" s="21" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D142" s="21" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D132" s="13" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D143" s="13" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D133" s="13" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D144" s="13" t="s">
         <v>1548</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D134" s="13" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D135" s="13" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="13">
-        <v>20</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="13" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D139" s="13" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D140" s="13" t="s">
-        <v>1448</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D141" s="21" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D142" s="13" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="13">
-        <v>21</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E144" s="18" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D145" s="13" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>1460</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D146" s="13" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D147" s="21" t="s">
-        <v>1553</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="13">
+        <v>20</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>1447</v>
+      </c>
       <c r="D148" s="13" t="s">
-        <v>1554</v>
+        <v>1447</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="13" t="s">
+        <v>1446</v>
+      </c>
       <c r="D149" s="13" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="13">
-        <v>22</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>1556</v>
-      </c>
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D150" s="13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D151" s="13" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E151" s="18" t="s">
-        <v>1468</v>
+        <v>1448</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D152" s="13" t="s">
-        <v>1557</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>1469</v>
+      <c r="D152" s="21" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D153" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="13">
+        <v>21</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D156" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D157" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D158" s="21" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D159" s="13" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D160" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="13">
+        <v>22</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D163" s="13" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D164" s="13" t="s">
         <v>1558</v>
       </c>
-      <c r="E153" s="13" t="s">
+      <c r="E164" s="13" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D154" s="13" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D165" s="13" t="s">
         <v>1559</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="E165" s="13" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D155" s="13" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D166" s="13" t="s">
         <v>1467</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E166" s="13" t="s">
         <v>1472</v>
       </c>
     </row>
@@ -17655,10 +18142,10 @@
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D140" sqref="D140"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18370,13 +18857,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18404,11 +18891,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1560</v>
+        <v>1689</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17" t="s">
-        <v>1565</v>
+        <v>1693</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>1566</v>
@@ -18418,7 +18905,7 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
-        <v>1564</v>
+        <v>1691</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>1567</v>
@@ -18428,7 +18915,7 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>1561</v>
+        <v>1692</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>1568</v>
@@ -18438,7 +18925,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17" t="s">
-        <v>1562</v>
+        <v>1690</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>1569</v>
@@ -18448,7 +18935,7 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="s">
-        <v>1563</v>
+        <v>1694</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>1570</v>
@@ -18459,30 +18946,30 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1571</v>
+        <v>1697</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1571</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="13" t="s">
-        <v>1678</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="13" t="s">
-        <v>1574</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" s="13" t="s">
-        <v>1573</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="13" t="s">
-        <v>1575</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -18490,108 +18977,124 @@
         <v>3</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1576</v>
+        <v>1700</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E15" s="18"/>
+        <v>1700</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1704</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>1709</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>1702</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>1703</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1710</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="13" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1663</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="17" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="17" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="17" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D27" s="17" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="17" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" s="17"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>5</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1587</v>
+        <v>1716</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="D31" s="17" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="13" t="s">
-        <v>1592</v>
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="13" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D32" s="17" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D33" s="13" t="s">
-        <v>1589</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D34" s="13" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="13" t="s">
-        <v>1591</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -18602,30 +19105,30 @@
         <v>6</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1594</v>
+        <v>1722</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1594</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D38" s="13" t="s">
-        <v>1597</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D39" s="13" t="s">
-        <v>1595</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D40" s="13" t="s">
-        <v>1596</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D41" s="13" t="s">
-        <v>1598</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -18633,455 +19136,446 @@
         <v>7</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>1599</v>
+        <v>1728</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1599</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D45" s="13" t="s">
-        <v>1600</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D46" s="13" t="s">
-        <v>1601</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D47" s="13" t="s">
-        <v>1602</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D48" s="13" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="13" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
         <v>8</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
+        <v>1733</v>
+      </c>
       <c r="D51" s="13" t="s">
-        <v>1606</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D52" s="13" t="s">
-        <v>1607</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D53" s="15" t="s">
-        <v>1609</v>
+      <c r="D53" s="13" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D54" s="13" t="s">
-        <v>1608</v>
+      <c r="D54" s="23" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="15"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+      <c r="D55" s="13" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="15" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
         <v>9</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="13" t="s">
+        <v>1739</v>
+      </c>
       <c r="D58" s="13" t="s">
-        <v>1611</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D59" s="15" t="s">
-        <v>1614</v>
+      <c r="D59" s="13" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D60" s="13" t="s">
-        <v>1612</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D61" s="13" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+      <c r="D61" s="15" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D62" s="13" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
         <v>10</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E63" s="18"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="13" t="s">
+        <v>1745</v>
+      </c>
       <c r="D64" s="13" t="s">
-        <v>1616</v>
-      </c>
+        <v>1745</v>
+      </c>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D65" s="13" t="s">
-        <v>1617</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D66" s="13" t="s">
-        <v>1618</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D67" s="13" t="s">
-        <v>1619</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D68" s="15" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
+      <c r="D68" s="13" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="15"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
         <v>11</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
+        <v>1750</v>
+      </c>
       <c r="D71" s="13" t="s">
-        <v>1623</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D72" s="13" t="s">
-        <v>1624</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D73" s="13" t="s">
-        <v>1626</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D74" s="21" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="13">
+      <c r="D74" s="13" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="13" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="21" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="13">
         <v>12</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D79" s="21" t="s">
-        <v>1632</v>
+      <c r="B79" s="13" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D80" s="13" t="s">
-        <v>1629</v>
+      <c r="D80" s="21" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D81" s="21" t="s">
-        <v>1631</v>
+      <c r="D81" s="13" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D82" s="13" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D85" s="21"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="13">
+      <c r="D82" s="21" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="13" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="21"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="13">
         <v>13</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D88" s="21" t="s">
-        <v>1638</v>
+      <c r="B88" s="13" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D89" s="13" t="s">
-        <v>1634</v>
+      <c r="D89" s="21" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D90" s="13" t="s">
-        <v>1635</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D91" s="13" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="13">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="13" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="13">
         <v>14</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D96" s="13" t="s">
-        <v>1641</v>
+      <c r="B96" s="17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D97" s="13" t="s">
-        <v>1644</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D98" s="13" t="s">
-        <v>1642</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D99" s="13" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="13">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="21" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="13">
         <v>15</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="13" t="s">
+        <v>1772</v>
+      </c>
       <c r="D103" s="13" t="s">
-        <v>1651</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D104" s="13" t="s">
-        <v>1650</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D105" s="13" t="s">
-        <v>1648</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D106" s="13" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="13">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D107" s="13" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="13">
         <v>16</v>
       </c>
-      <c r="B108" s="13" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="13" t="s">
+        <v>1739</v>
+      </c>
       <c r="D109" s="13" t="s">
-        <v>1653</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D110" s="13" t="s">
-        <v>1654</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D111" s="13" t="s">
-        <v>1655</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D112" s="13" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="13">
+      <c r="D112" s="15" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="13" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="13">
         <v>17</v>
       </c>
-      <c r="B114" s="13" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="13" t="s">
+        <v>1783</v>
+      </c>
       <c r="D115" s="13" t="s">
-        <v>1658</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D116" s="13" t="s">
-        <v>1659</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D117" s="13" t="s">
-        <v>1660</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D118" s="13" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="13">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D119" s="13" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="13">
         <v>18</v>
       </c>
-      <c r="B121" s="13" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="13" t="s">
+        <v>1787</v>
+      </c>
       <c r="D122" s="13" t="s">
-        <v>1664</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D123" s="13" t="s">
-        <v>1665</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D124" s="13" t="s">
-        <v>1667</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D125" s="13" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="13">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D126" s="13" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="13">
         <v>19</v>
       </c>
-      <c r="B127" s="13" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="13" t="s">
+        <v>1792</v>
+      </c>
       <c r="D128" s="13" t="s">
-        <v>1670</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D129" s="13" t="s">
-        <v>1669</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D130" s="13" t="s">
-        <v>1671</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D131" s="13" t="s">
-        <v>1672</v>
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D132" s="13" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="13">
+      <c r="D133" s="13" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="13">
         <v>20</v>
       </c>
-      <c r="B133" s="13" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D134" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D135" s="13" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D136" s="13" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D137" s="13" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="E139" s="18"/>
-    </row>
-    <row r="145" spans="5:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="E145" s="18"/>
+    </row>
+    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E140" s="18"/>
+    </row>
+    <row r="146" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E146" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19090,6 +19584,760 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BE78EC-AA32-B34E-ACC2-1A4A3E1BEE67}">
+  <dimension ref="A1:E146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D135" sqref="D135:D139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="13"/>
+    <col min="2" max="2" width="28" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="96.33203125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="13" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="13" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="13" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="13" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>3</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="13" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>4</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="17" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="17" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="17" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D27" s="17" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="17" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="13" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D32" s="17" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="13" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>6</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="13" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="13" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="13" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="13" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>7</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="13" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="13" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="13" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="13" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="13" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>8</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="13" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="13" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="23" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="13" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="15" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>9</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="13" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="13" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="15" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D62" s="13" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>10</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="13" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="13" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="13" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="13" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="15"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
+        <v>11</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D72" s="13" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="13" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="13" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="13" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="21" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="13">
+        <v>12</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="21" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="13" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="21" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="13" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="21"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="13">
+        <v>13</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="21" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="13" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="13" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="13" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="13">
+        <v>14</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="13" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="13" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99" s="13" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100" s="13" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="21" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="13">
+        <v>15</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" s="13" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105" s="13" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D106" s="13" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D107" s="13" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="13">
+        <v>16</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D110" s="13" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D111" s="13" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D112" s="15" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="13" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="13">
+        <v>17</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D116" s="13" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D117" s="13" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="13" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D119" s="13" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="13">
+        <v>18</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D123" s="13" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D124" s="13" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D125" s="13" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D126" s="13" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="13">
+        <v>19</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D129" s="13" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D130" s="13" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D131" s="13" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D132" s="13" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D133" s="13" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="13">
+        <v>20</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D136" s="13" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="13" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D138" s="13" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D139" s="13" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E140" s="18"/>
+    </row>
+    <row r="146" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E146" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
@@ -19355,7 +20603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G1529"/>
   <sheetViews>
@@ -30911,275 +32159,6 @@
       <c r="G1529" s="6" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:A50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="111" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1306</v>
       </c>
     </row>
   </sheetData>
@@ -31374,10 +32353,279 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -31532,10 +32780,10 @@
         <v>1317</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -31561,7 +32809,7 @@
         <v>1323</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -31604,7 +32852,7 @@
         <v>1108</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -32453,7 +33701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -32527,7 +33775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>

--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -9,35 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="465" windowWidth="23820" windowHeight="14100" tabRatio="819" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="1065" yWindow="465" windowWidth="23820" windowHeight="14100" tabRatio="819" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
-    <sheet name="RA" sheetId="7" r:id="rId2"/>
-    <sheet name="RS技巧" sheetId="9" r:id="rId3"/>
-    <sheet name="RS练习" sheetId="1" r:id="rId4"/>
-    <sheet name="DI" sheetId="6" r:id="rId5"/>
-    <sheet name="RL" sheetId="10" r:id="rId6"/>
-    <sheet name="SWT" sheetId="4" r:id="rId7"/>
-    <sheet name="WE" sheetId="5" r:id="rId8"/>
-    <sheet name="WE素材" sheetId="17" r:id="rId9"/>
-    <sheet name="RFIB" sheetId="12" r:id="rId10"/>
-    <sheet name="FIBRW" sheetId="13" r:id="rId11"/>
-    <sheet name="SST" sheetId="3" r:id="rId12"/>
-    <sheet name="SST Practice" sheetId="16" r:id="rId13"/>
-    <sheet name="SST  Summary-Page1_0810" sheetId="20" r:id="rId14"/>
-    <sheet name="SST  Summary-Page2_0811" sheetId="21" r:id="rId15"/>
-    <sheet name="SST  Summary-Page3_0812" sheetId="22" r:id="rId16"/>
-    <sheet name="SST  Summary-Page4_0813" sheetId="23" r:id="rId17"/>
-    <sheet name="SST Practise" sheetId="14" r:id="rId18"/>
-    <sheet name="WFD" sheetId="2" r:id="rId19"/>
-    <sheet name="WFD错误句子" sheetId="19" r:id="rId20"/>
-    <sheet name="易混单词" sheetId="18" r:id="rId21"/>
-    <sheet name="FIBL" sheetId="15" r:id="rId22"/>
-    <sheet name="Reading--Choice" sheetId="11" r:id="rId23"/>
+    <sheet name="复习进度" sheetId="24" r:id="rId2"/>
+    <sheet name="RA" sheetId="7" r:id="rId3"/>
+    <sheet name="RS技巧" sheetId="9" r:id="rId4"/>
+    <sheet name="RS练习" sheetId="1" r:id="rId5"/>
+    <sheet name="DI" sheetId="6" r:id="rId6"/>
+    <sheet name="RL" sheetId="10" r:id="rId7"/>
+    <sheet name="SWT" sheetId="4" r:id="rId8"/>
+    <sheet name="WE" sheetId="5" r:id="rId9"/>
+    <sheet name="WE素材" sheetId="17" r:id="rId10"/>
+    <sheet name="RFIB" sheetId="12" r:id="rId11"/>
+    <sheet name="FIBRW" sheetId="13" r:id="rId12"/>
+    <sheet name="SST" sheetId="3" r:id="rId13"/>
+    <sheet name="SST Practice" sheetId="16" r:id="rId14"/>
+    <sheet name="SST  Summary-Page1_0810" sheetId="20" r:id="rId15"/>
+    <sheet name="SST  Summary-Page2_0811" sheetId="21" r:id="rId16"/>
+    <sheet name="SST  Summary-Page3_0812" sheetId="22" r:id="rId17"/>
+    <sheet name="SST  Summary-Page4_0813" sheetId="23" r:id="rId18"/>
+    <sheet name="SST Practise" sheetId="14" r:id="rId19"/>
+    <sheet name="WFD" sheetId="2" r:id="rId20"/>
+    <sheet name="WFD错误句子" sheetId="19" r:id="rId21"/>
+    <sheet name="易混单词" sheetId="18" r:id="rId22"/>
+    <sheet name="FIBL" sheetId="15" r:id="rId23"/>
+    <sheet name="Reading--Choice" sheetId="11" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'SST  Summary-Page4_0813'!$A$1:$P$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'SST  Summary-Page1_0810'!$A$1:$S$169</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'SST  Summary-Page2_0811'!$A$1:$O$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'SST  Summary-Page3_0812'!$A$1:$P$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'SST  Summary-Page4_0813'!$A$1:$O$65</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1864">
   <si>
     <t>句子</t>
   </si>
@@ -13614,15 +13618,6 @@
     <t>Finally, the lecture concluded that most people were denied basic rights.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Internet is better than in a newspapers and on television. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Internet can link and connect to other journalism and makes him more efficient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Internet is very good.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">an event of </t>
     </r>
@@ -15981,6 +15976,57 @@
   </si>
   <si>
     <t>I am talking about animal behavior and human nature.</t>
+  </si>
+  <si>
+    <t>关键意群</t>
+  </si>
+  <si>
+    <t>after the due date</t>
+  </si>
+  <si>
+    <t>for assignments submitted</t>
+  </si>
+  <si>
+    <t>日期类</t>
+  </si>
+  <si>
+    <t>before the deadline</t>
+  </si>
+  <si>
+    <t>assignment提交类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assignemtns shoul be submitted </t>
+  </si>
+  <si>
+    <t>喜欢早餐类</t>
+  </si>
+  <si>
+    <t>and orange juice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomato and potatos and cheese sandwich and </t>
+  </si>
+  <si>
+    <t>lead to</t>
+  </si>
+  <si>
+    <t>leads to</t>
+  </si>
+  <si>
+    <t>动词类</t>
+  </si>
+  <si>
+    <t>have access to</t>
+  </si>
+  <si>
+    <t>The Internet allows you to tell stories better than on television.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Internet makes it more efficient to collect information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Internet also has negtive impacts on some papers</t>
   </si>
 </sst>
 </file>
@@ -16526,6 +16572,120 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>936</v>
+      </c>
+      <c r="C19" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>937</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16567,7 +16727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -16618,7 +16778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -16806,12 +16966,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17171,15 +17331,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17229,21 +17392,21 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>1481</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17" t="s">
-        <v>1482</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="s">
-        <v>1483</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -17278,7 +17441,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="13" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>1393</v>
@@ -17300,7 +17463,7 @@
         <v>1352</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>1474</v>
@@ -17309,7 +17472,7 @@
     <row r="16" spans="1:5">
       <c r="B16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>1475</v>
@@ -17318,7 +17481,7 @@
     <row r="17" spans="1:5">
       <c r="B17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>1476</v>
@@ -17327,7 +17490,7 @@
     <row r="18" spans="1:5">
       <c r="B18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>1477</v>
@@ -17336,7 +17499,7 @@
     <row r="19" spans="1:5">
       <c r="B19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>1480</v>
@@ -17421,7 +17584,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="13" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>800</v>
@@ -17429,7 +17592,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="13" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>801</v>
@@ -17437,7 +17600,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="D33" s="13" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>802</v>
@@ -17445,7 +17608,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="D34" s="13" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>798</v>
@@ -17519,15 +17682,15 @@
     </row>
     <row r="45" spans="1:5">
       <c r="D45" s="13" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="D46" s="13" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>1376</v>
@@ -17535,7 +17698,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="D47" s="13" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>1375</v>
@@ -17543,7 +17706,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="D48" s="13" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>1377</v>
@@ -17589,7 +17752,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="D54" s="13" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>1381</v>
@@ -17597,7 +17760,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="D55" s="15" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -17619,7 +17782,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="D58" s="13" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>1399</v>
@@ -17635,7 +17798,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="D60" s="13" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>1401</v>
@@ -17643,7 +17806,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="D61" s="13" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>1402</v>
@@ -17654,45 +17817,45 @@
         <v>10</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="D64" s="13" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="D65" s="13" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="D66" s="13" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="D67" s="15" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -17711,7 +17874,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="D71" s="13" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>1409</v>
@@ -17735,7 +17898,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="D74" s="21" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -17748,38 +17911,38 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="13" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="D80" s="13" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="D81" s="13" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="D82" s="13" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="D83" s="13" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="D84" s="13" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -17790,7 +17953,7 @@
         <v>1414</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>1413</v>
@@ -17798,12 +17961,12 @@
     </row>
     <row r="90" spans="1:5">
       <c r="D90" s="13" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="D91" s="21" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>991</v>
@@ -17811,12 +17974,12 @@
     </row>
     <row r="92" spans="1:5">
       <c r="D92" s="21" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="D93" s="13" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>992</v>
@@ -17824,7 +17987,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="D94" s="13" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>993</v>
@@ -17840,7 +18003,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="D96" s="21" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -17859,7 +18022,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="D99" s="21" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -17872,7 +18035,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="D101" s="13" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>1418</v>
@@ -17880,7 +18043,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="D102" s="13" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>999</v>
@@ -17888,7 +18051,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="D103" s="13" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>1420</v>
@@ -17905,7 +18068,7 @@
         <v>362</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="E106" s="13" t="s">
         <v>1006</v>
@@ -17913,7 +18076,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="D107" s="13" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="E107" s="13" t="s">
         <v>1005</v>
@@ -17921,7 +18084,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="D108" s="13" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>1004</v>
@@ -17929,7 +18092,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="D109" s="13" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>1423</v>
@@ -17937,7 +18100,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="D110" s="21" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -17969,22 +18132,22 @@
     </row>
     <row r="115" spans="1:5">
       <c r="D115" s="13" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="D116" s="13" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="D117" s="13" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="D118" s="13" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -18006,7 +18169,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="D121" s="13" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="E121" s="13" t="s">
         <v>1432</v>
@@ -18014,7 +18177,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="D122" s="21" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="E122" s="13" t="s">
         <v>1433</v>
@@ -18022,7 +18185,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="D123" s="21" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E123" s="13" t="s">
         <v>1434</v>
@@ -18030,17 +18193,17 @@
     </row>
     <row r="124" spans="1:5">
       <c r="D124" s="13" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="D125" s="21" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="D126" s="13" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="E126" s="13" t="s">
         <v>1435</v>
@@ -18064,12 +18227,12 @@
     </row>
     <row r="131" spans="1:4">
       <c r="D131" s="13" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="D132" s="13" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -18090,7 +18253,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="D136" s="13" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -18100,12 +18263,12 @@
     </row>
     <row r="138" spans="1:4">
       <c r="D138" s="13" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="D139" s="13" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -18121,7 +18284,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="D142" s="21" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -18131,12 +18294,12 @@
     </row>
     <row r="144" spans="1:4">
       <c r="D144" s="13" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="D145" s="13" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -18163,7 +18326,7 @@
         <v>1446</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>1451</v>
@@ -18187,7 +18350,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="D152" s="21" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -18230,12 +18393,12 @@
     </row>
     <row r="158" spans="1:5">
       <c r="D158" s="21" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="D159" s="13" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>1462</v>
@@ -18243,7 +18406,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="D160" s="13" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="E160" s="13" t="s">
         <v>1463</v>
@@ -18257,7 +18420,7 @@
         <v>1465</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>1466</v>
@@ -18268,7 +18431,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="D163" s="13" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="E163" s="13" t="s">
         <v>1469</v>
@@ -18276,7 +18439,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="D164" s="13" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>1470</v>
@@ -18284,7 +18447,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="D165" s="13" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E165" s="13" t="s">
         <v>1471</v>
@@ -18300,19 +18463,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="86" max="18" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E6"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -18340,54 +18509,54 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>1564</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -18395,30 +18564,30 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="13" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="13" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="13" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="13" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25">
@@ -18426,35 +18595,35 @@
         <v>3</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.5" customHeight="1">
@@ -18462,30 +18631,30 @@
         <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5" customHeight="1">
       <c r="D24" s="17" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1">
       <c r="D25" s="17" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1">
       <c r="D26" s="17" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="D27" s="17" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1">
@@ -18499,35 +18668,35 @@
         <v>5</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45">
       <c r="D31" s="17" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="D32" s="13" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="D33" s="13" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="D34" s="13" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="D35" s="13" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -18538,30 +18707,30 @@
         <v>6</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="D38" s="13" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="D39" s="13" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="D40" s="13" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="D41" s="13" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -18569,30 +18738,30 @@
         <v>7</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="D45" s="13" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="D46" s="13" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="D47" s="13" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="D48" s="13" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -18600,30 +18769,30 @@
         <v>8</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="D51" s="13" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="D52" s="13" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="D53" s="15" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="D54" s="13" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -18634,30 +18803,30 @@
         <v>9</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="D58" s="13" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="D59" s="15" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="D60" s="13" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="D61" s="13" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.25">
@@ -18665,36 +18834,36 @@
         <v>10</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="E63" s="18"/>
     </row>
     <row r="64" spans="1:5">
       <c r="D64" s="13" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="13" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="D66" s="13" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="D67" s="13" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="15" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -18702,58 +18871,61 @@
         <v>11</v>
       </c>
       <c r="B70" s="13" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>1622</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="D71" s="13" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="D72" s="13" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="D73" s="13" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="D74" s="21" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="13">
         <v>12</v>
       </c>
+      <c r="B78" s="13" t="s">
+        <v>1625</v>
+      </c>
       <c r="D78" s="13" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="D79" s="21" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="D80" s="13" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="D81" s="21" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="D82" s="13" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -18764,33 +18936,33 @@
         <v>13</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="D88" s="21" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="D89" s="13" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="D90" s="13" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="D91" s="13" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -18798,30 +18970,30 @@
         <v>14</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="D96" s="13" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="D97" s="13" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="D98" s="13" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="D99" s="13" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -18829,30 +19001,30 @@
         <v>15</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="D103" s="13" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="D104" s="13" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="D105" s="13" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="D106" s="13" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -18860,30 +19032,30 @@
         <v>16</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="D109" s="13" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="D110" s="13" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="D111" s="13" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="D112" s="13" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -18891,30 +19063,30 @@
         <v>17</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="D115" s="13" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="D116" s="13" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="D117" s="13" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="D118" s="13" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -18922,30 +19094,30 @@
         <v>18</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="D122" s="13" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="D123" s="13" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="D124" s="13" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="D125" s="13" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -18953,30 +19125,30 @@
         <v>19</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="D128" s="13" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="D129" s="13" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="D130" s="13" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="D131" s="13" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -18984,30 +19156,30 @@
         <v>20</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="D134" s="13" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="D135" s="13" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="D136" s="13" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="D137" s="13" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.25">
@@ -19018,16 +19190,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="83" max="14" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="138" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
@@ -19058,54 +19236,54 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19113,30 +19291,30 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="13" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="13" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="13" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="13" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19144,54 +19322,54 @@
         <v>3</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="13" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1">
@@ -19199,35 +19377,35 @@
         <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1">
       <c r="D24" s="17" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1">
       <c r="D25" s="17" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1">
       <c r="D26" s="17" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="D27" s="17" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1">
       <c r="D28" s="17" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19238,30 +19416,30 @@
         <v>5</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="13" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="17" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="D33" s="13" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="D34" s="13" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -19272,30 +19450,30 @@
         <v>6</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="D38" s="13" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="D39" s="13" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="D40" s="13" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="D41" s="13" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -19303,35 +19481,35 @@
         <v>7</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="D45" s="13" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="D46" s="13" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="D47" s="13" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="D48" s="13" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="D49" s="13" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -19339,35 +19517,35 @@
         <v>8</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="D52" s="13" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="D53" s="13" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="D54" s="23" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="D55" s="13" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="D56" s="15" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -19375,30 +19553,30 @@
         <v>9</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="D59" s="13" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="D60" s="13" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="D61" s="15" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="D62" s="13" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.25">
@@ -19406,31 +19584,31 @@
         <v>10</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="E64" s="18"/>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="13" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="D66" s="13" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="D67" s="13" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="13" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -19441,35 +19619,35 @@
         <v>11</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="D72" s="13" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="D73" s="13" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="D74" s="13" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="D75" s="13" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="D76" s="21" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -19477,30 +19655,30 @@
         <v>12</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="D80" s="21" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="D81" s="13" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="D82" s="21" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="D83" s="13" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -19511,30 +19689,30 @@
         <v>13</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="D89" s="21" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="D90" s="13" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="D91" s="13" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="D92" s="13" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -19542,35 +19720,35 @@
         <v>14</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="D97" s="13" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="D98" s="13" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="D99" s="13" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="D100" s="13" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="D101" s="21" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -19578,30 +19756,30 @@
         <v>15</v>
       </c>
       <c r="B103" s="13" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D103" s="13" t="s">
         <v>1772</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="D104" s="13" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="D105" s="13" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="D106" s="13" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="D107" s="13" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -19609,30 +19787,30 @@
         <v>16</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="D110" s="13" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="D111" s="13" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="D112" s="15" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="D113" s="13" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -19640,30 +19818,30 @@
         <v>17</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="D116" s="13" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="D117" s="13" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="D118" s="13" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="D119" s="13" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -19671,30 +19849,30 @@
         <v>18</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="D123" s="13" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="D124" s="13" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="D125" s="13" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="D126" s="13" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -19702,35 +19880,35 @@
         <v>19</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="D129" s="13" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="D130" s="13" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="D131" s="13" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="D132" s="13" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="D133" s="13" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -19746,22 +19924,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="69" max="15" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A1:O64"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19789,54 +19970,54 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>1801</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19844,30 +20025,30 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="13" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="13" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="13" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="13" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19875,34 +20056,34 @@
         <v>3</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="17"/>
       <c r="D16" s="17" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="17"/>
       <c r="D17" s="17" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="17"/>
       <c r="D19" s="17" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.5" customHeight="1">
@@ -19910,40 +20091,40 @@
         <v>4</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5" customHeight="1">
       <c r="D24" s="17" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1">
       <c r="D25" s="13" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1">
       <c r="D26" s="17" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="D27" s="17" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1">
       <c r="D28" s="17" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="D29" s="17" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -19954,30 +20135,30 @@
         <v>5</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="D32" s="13" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="D33" s="17" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="D34" s="13" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="D35" s="13" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -19988,30 +20169,30 @@
         <v>6</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="D39" s="13" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="D40" s="13" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="D41" s="13" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="D42" s="13" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -20019,30 +20200,30 @@
         <v>7</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="D46" s="13" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="D47" s="13" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="D48" s="13" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="D49" s="13" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -20050,30 +20231,30 @@
         <v>8</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="D53" s="13" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="D54" s="13" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="D55" s="23" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="D56" s="13" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -20084,30 +20265,30 @@
         <v>9</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="D60" s="13" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="D61" s="13" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="D62" s="15" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="D63" s="13" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.25">
@@ -20197,14 +20378,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.59" header="0.3" footer="0.69"/>
-  <pageSetup paperSize="9" scale="38" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="67" max="16383" man="1"/>
+    <brk id="29" max="14" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
@@ -20470,7 +20651,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1529"/>
   <sheetViews>
@@ -32034,192 +32229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="72.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="D2" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="D3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="D4" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
@@ -32488,7 +32498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P106"/>
   <sheetViews>
@@ -32647,10 +32657,10 @@
         <v>1317</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -32676,7 +32686,7 @@
         <v>1323</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -32719,7 +32729,7 @@
         <v>1108</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -33568,7 +33578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -33642,7 +33652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -33714,15 +33724,201 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="72.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -33741,12 +33937,82 @@
         <v>159</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>1860</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1001"/>
   <sheetViews>
@@ -39918,7 +40184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -40084,7 +40350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -40176,7 +40442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -40279,7 +40545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
@@ -40527,118 +40793,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>952</v>
-      </c>
-      <c r="C1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="C2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>936</v>
-      </c>
-      <c r="C19" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>937</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richie/Github/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048BB74A-BC98-FE49-BF12-0519A9CD55BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED730F9-6F37-8149-927C-572593D38797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11740" yWindow="1380" windowWidth="18800" windowHeight="13500" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="SST Practise" sheetId="14" r:id="rId11"/>
     <sheet name="易混单词" sheetId="18" r:id="rId12"/>
     <sheet name="RA发音纠正" sheetId="7" r:id="rId13"/>
-    <sheet name="FIBL" sheetId="15" r:id="rId14"/>
-    <sheet name="固定搭配-FIB用" sheetId="26" r:id="rId15"/>
+    <sheet name="FIB单词" sheetId="15" r:id="rId14"/>
+    <sheet name="FIB固定搭配" sheetId="26" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">易混单词!$A$1:$U$1</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1894">
   <si>
     <t>Hello, This  is Guannan Ruan</t>
   </si>
@@ -8725,14 +8725,1420 @@
     <t>复杂的 n</t>
   </si>
   <si>
-    <t>·</t>
+    <t>progressive</t>
+  </si>
+  <si>
+    <t>perch</t>
+  </si>
+  <si>
+    <t>释义</t>
+  </si>
+  <si>
+    <t>易混</t>
+  </si>
+  <si>
+    <t>易混词释义</t>
+  </si>
+  <si>
+    <t>鸟类 栖息 v</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <r>
+      <t>appe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>tite</t>
+    </r>
+  </si>
+  <si>
+    <t>食欲，胃口，欲望 n</t>
+  </si>
+  <si>
+    <t>规模，等级，比列 n.</t>
+  </si>
+  <si>
+    <t>flick</t>
+  </si>
+  <si>
+    <t>轻抚，轻打</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>特点，人的特性</t>
+  </si>
+  <si>
+    <t>treit</t>
+  </si>
+  <si>
+    <t>treat /tri:t/</t>
+  </si>
+  <si>
+    <t>对待，治疗 n. &amp;v.</t>
+  </si>
+  <si>
+    <t>节奏韵律</t>
+  </si>
+  <si>
+    <t>rhythm</t>
+  </si>
+  <si>
+    <t>/ˈrɪðəm/</t>
+  </si>
+  <si>
+    <t>rhythmical</t>
+  </si>
+  <si>
+    <t>节奏的</t>
+  </si>
+  <si>
+    <t>/ˈrɪðmɪkl/</t>
+  </si>
+  <si>
+    <t>口语的</t>
+  </si>
+  <si>
+    <t>forth</t>
+  </si>
+  <si>
+    <t>第四，向前adv</t>
+  </si>
+  <si>
+    <t>/fɔrθ/</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>/fɔ:rs/</t>
+  </si>
+  <si>
+    <t>antiquarian</t>
+  </si>
+  <si>
+    <t>古文物的</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>素描，草图</t>
+  </si>
+  <si>
+    <t>sketʃ</t>
+  </si>
+  <si>
+    <t>挠， 抓破</t>
+  </si>
+  <si>
+    <t>stratch /skrætʃ/</t>
+  </si>
+  <si>
+    <t>建议，提议 v</t>
+  </si>
+  <si>
+    <t>/prə'poʊz/</t>
+  </si>
+  <si>
+    <t>proposal  /prəˈpoʊz(ə)l/</t>
+  </si>
+  <si>
+    <t>建议 n</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>部分的，adj</t>
+  </si>
+  <si>
+    <t>/ˈpɑːrʃ(ə)l/</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>谷物</t>
+  </si>
+  <si>
+    <t>/grein/</t>
+  </si>
+  <si>
+    <t>green /gri:n/</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>herd</t>
+  </si>
+  <si>
+    <t>/hɜːrd/</t>
+  </si>
+  <si>
+    <t>herb /(h) ɜːrb/</t>
+  </si>
+  <si>
+    <t>草药</t>
+  </si>
+  <si>
+    <t>兽群，人群 n  聚在一起 v</t>
+  </si>
+  <si>
+    <t>声学 n</t>
+  </si>
+  <si>
+    <r>
+      <t>ac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ustics</t>
+    </r>
+  </si>
+  <si>
+    <t>vernacular</t>
+  </si>
+  <si>
+    <t>方言土语n</t>
+  </si>
+  <si>
+    <t>particular</t>
+  </si>
+  <si>
+    <t>专门的 特指的 adj.</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>体积，音量</t>
+  </si>
+  <si>
+    <t>/'vɒljuːm//</t>
+  </si>
+  <si>
+    <t>注意是ume结尾</t>
+  </si>
+  <si>
+    <t>curriculum</t>
+  </si>
+  <si>
+    <t>课程</t>
+  </si>
+  <si>
+    <t>//kəˈrɪkjələm//</t>
+  </si>
+  <si>
+    <t>注意是um结尾</t>
+  </si>
+  <si>
+    <t>公平 公证，股本普通股</t>
+  </si>
+  <si>
+    <t>/'ekwəti/</t>
+  </si>
+  <si>
+    <t>equality  /iˈkwɑːləti/</t>
+  </si>
+  <si>
+    <t>均等，等式</t>
+  </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
+    <t>等式，方程</t>
+  </si>
+  <si>
+    <t>plunge</t>
+  </si>
+  <si>
+    <t>暴跌，俯冲向下 v, 跳水 n</t>
+  </si>
+  <si>
+    <t>/plʌndʒ/</t>
+  </si>
+  <si>
+    <r>
+      <t>approv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>al</t>
+    </r>
+  </si>
+  <si>
+    <t>赞成，批准n</t>
+  </si>
+  <si>
+    <t>/əˈpruːv(ə)l/</t>
+  </si>
+  <si>
+    <t>approve  /əˈpruːv /</t>
+  </si>
+  <si>
+    <t>同意，赞成 v</t>
+  </si>
+  <si>
+    <t>美学</t>
+  </si>
+  <si>
+    <t>/əˈkuːstɪk/</t>
+  </si>
+  <si>
+    <t>aesthetics</t>
+  </si>
+  <si>
+    <t>census</t>
+  </si>
+  <si>
+    <t>人口普查n ， 人口统计v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/'sensəs/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron </t>
+  </si>
+  <si>
+    <t>神经元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/'nʊ.rɑn/ </t>
+  </si>
+  <si>
+    <t>阻碍，阻挡 v</t>
+  </si>
+  <si>
+    <t>/əb'strʌkt/</t>
+  </si>
+  <si>
+    <t>abstract /ˈæbstrækt/</t>
+  </si>
+  <si>
+    <t>抽象的 adj ， 摘要 n</t>
+  </si>
+  <si>
+    <t>健壮的 adj</t>
+  </si>
+  <si>
+    <t>/roʊˈbʌst/</t>
+  </si>
+  <si>
+    <t>vanish</t>
+  </si>
+  <si>
+    <t>消失不见得  v</t>
+  </si>
+  <si>
+    <t>invasion</t>
+  </si>
+  <si>
+    <t>入侵，侵略， invasion of 被入侵的东西</t>
+  </si>
+  <si>
+    <t>discern</t>
+  </si>
+  <si>
+    <t>看出，察觉v.</t>
+  </si>
+  <si>
+    <t>/dɪˈsɜːrn/</t>
+  </si>
+  <si>
+    <t>collaboration</t>
+  </si>
+  <si>
+    <t>合作 n</t>
+  </si>
+  <si>
+    <t>eradicate</t>
+  </si>
+  <si>
+    <t>根除，消灭 v.</t>
+  </si>
+  <si>
+    <t>submerge</t>
+  </si>
+  <si>
+    <t>淹没 v</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>/steɪl/</t>
+  </si>
+  <si>
+    <t>不新鲜的， 变味的 adj</t>
+  </si>
+  <si>
+    <t>still /sti: l/</t>
+  </si>
+  <si>
+    <t>依旧 adv</t>
+  </si>
+  <si>
+    <t>slump</t>
+  </si>
+  <si>
+    <t>衰退，骤降，猛跌 vi</t>
+  </si>
+  <si>
+    <t>/slʌmp/</t>
+  </si>
+  <si>
+    <t>defensible</t>
+  </si>
+  <si>
+    <t>可辩解的 adj</t>
+  </si>
+  <si>
+    <t>/dɪ'fensəb(ə)l/</t>
+  </si>
+  <si>
+    <t>tremendous</t>
+  </si>
+  <si>
+    <t>巨大的 adj</t>
+  </si>
+  <si>
+    <t>sensitive</t>
+  </si>
+  <si>
+    <t>过敏的， 易受影响的 adj</t>
+  </si>
+  <si>
+    <t>advocate</t>
+  </si>
+  <si>
+    <t>提倡拥护 v.</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>依照惯例的 adj</t>
+  </si>
+  <si>
+    <t>mandate</t>
+  </si>
+  <si>
+    <t>授权v</t>
+  </si>
+  <si>
+    <t>解释 说明 n</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> /ɪn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>.tɜr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prə'teɪʃ(ə)n/ 次中音在ter上</t>
+    </r>
+  </si>
+  <si>
+    <t>monetary</t>
+  </si>
+  <si>
+    <t>钱的，货币的 adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /'mʌnə.teri/</t>
+  </si>
+  <si>
+    <t>scatter</t>
+  </si>
+  <si>
+    <t>四散 粉分散 v.</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>不可思议的 adj</t>
+  </si>
+  <si>
+    <t>注意不是 able 而是 dible</t>
+  </si>
+  <si>
+    <t>bounty</t>
+  </si>
+  <si>
+    <t>奖金</t>
+  </si>
+  <si>
+    <t>/'baʊnti/</t>
+  </si>
+  <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>创业者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注意entre pre </t>
+  </si>
+  <si>
+    <t>发音 或注意事项</t>
+  </si>
+  <si>
+    <t>deficiency</t>
+  </si>
+  <si>
+    <t>缺乏 不足</t>
+  </si>
+  <si>
+    <t>efficiency n.</t>
+  </si>
+  <si>
+    <t>效率 效能 功率</t>
+  </si>
+  <si>
+    <t>注意 只有一个 f</t>
+  </si>
+  <si>
+    <t>compensate</t>
+  </si>
+  <si>
+    <t>补偿，弥补 v</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/'kɒmpən </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> seɪt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>unravel</t>
+  </si>
+  <si>
+    <t>把缠在一起的线解开，拆开 v</t>
+  </si>
+  <si>
+    <t>/ʌn'ræv(ə)l/</t>
+  </si>
+  <si>
+    <t>fastener</t>
+  </si>
+  <si>
+    <t>纽扣</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /'fæs(ə)nər/  t遇见n, t省略发音</t>
+  </si>
+  <si>
+    <t>interpret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">诠释 说明v </t>
+  </si>
+  <si>
+    <t>interpretation</t>
+  </si>
+  <si>
+    <r>
+      <t>relev</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>有关的， 确切的</t>
+  </si>
+  <si>
+    <t>反常的 adj</t>
+  </si>
+  <si>
+    <t>counterintuitive</t>
+  </si>
+  <si>
+    <t>/ˌkaʊntərinˈtuːitiv/  terin e的发音可以省略</t>
+  </si>
+  <si>
+    <t>boredom</t>
+  </si>
+  <si>
+    <t>无聊 厌恶 n</t>
+  </si>
+  <si>
+    <t>bored</t>
+  </si>
+  <si>
+    <t>无聊的 adj</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>使 无聊 v</t>
+  </si>
+  <si>
+    <t>pursuit</t>
+  </si>
+  <si>
+    <t>追求， 追赶 n</t>
+  </si>
+  <si>
+    <t>pursue v.</t>
+  </si>
+  <si>
+    <t>追赶</t>
+  </si>
+  <si>
+    <t>排水 n</t>
+  </si>
+  <si>
+    <t>convene</t>
+  </si>
+  <si>
+    <t>召集， 集合 n.</t>
+  </si>
+  <si>
+    <t>excess</t>
+  </si>
+  <si>
+    <t>access /ˈækses/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入口 n 进入 通行 v. </t>
+  </si>
+  <si>
+    <t>超过 过分 n</t>
+  </si>
+  <si>
+    <t>/ik'ses/   重音位置不同， 一个是ik 后面是 æk</t>
+  </si>
+  <si>
+    <t>radiant</t>
+  </si>
+  <si>
+    <t>光源 n 灿烂的 adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /'reɪdiənt/</t>
+  </si>
+  <si>
+    <t>holistic</t>
+  </si>
+  <si>
+    <t>整体的全面的 adj</t>
+  </si>
+  <si>
+    <t>pertain</t>
+  </si>
+  <si>
+    <t>存在 v</t>
+  </si>
+  <si>
+    <t>protein  /ˈproʊtiːn/</t>
+  </si>
+  <si>
+    <t>蛋白质</t>
+  </si>
+  <si>
+    <t>/pə'teɪn/</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>边缘 n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/'mɑː(r)dʒɪn/ </t>
+  </si>
+  <si>
+    <t>clamour</t>
+  </si>
+  <si>
+    <t>吵闹 n</t>
+  </si>
+  <si>
+    <t>vacuum</t>
+  </si>
+  <si>
+    <t>真空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/'vækjʊəm/ </t>
+  </si>
+  <si>
+    <t>注意也是um结尾</t>
+  </si>
+  <si>
+    <t>derivative</t>
+  </si>
+  <si>
+    <t>衍生物 n,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /dɪ'rɪvətɪv/</t>
+  </si>
+  <si>
+    <t>debris /dəˈbriː/</t>
+  </si>
+  <si>
+    <t>碎片残骸</t>
+  </si>
+  <si>
+    <t>易碎的 adj</t>
+  </si>
+  <si>
+    <t>/'frædʒəl/</t>
+  </si>
+  <si>
+    <t>frugal  /ˈfruːɡ(ə)l/</t>
+  </si>
+  <si>
+    <t>节俭的 adj</t>
+  </si>
+  <si>
+    <t>genuine</t>
+  </si>
+  <si>
+    <t>真的， 名副其实的 adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/'dʒenjuɪn/ </t>
+  </si>
+  <si>
+    <t>geninus  / ˈdʒiːniəs/</t>
+  </si>
+  <si>
+    <t>天才 天赋 n.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">particle /'pɑː(r)tɪk(ə)l/ </t>
+  </si>
+  <si>
+    <t>粒子，颗粒</t>
+  </si>
+  <si>
+    <t>fossilize</t>
+  </si>
+  <si>
+    <t>成为化石，vt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scotch /skɒtʃ/ </t>
+  </si>
+  <si>
+    <t>挫败 阻止 v.</t>
+  </si>
+  <si>
+    <t>breadth</t>
+  </si>
+  <si>
+    <t>宽度 广度 n.</t>
+  </si>
+  <si>
+    <t>/bredθ/</t>
+  </si>
+  <si>
+    <t>breath</t>
+  </si>
+  <si>
+    <t>呼吸 n</t>
+  </si>
+  <si>
+    <t>/breθ/</t>
+  </si>
+  <si>
+    <t>breathe /briːð/</t>
+  </si>
+  <si>
+    <t>呼吸 v.</t>
+  </si>
+  <si>
+    <t>consonant</t>
+  </si>
+  <si>
+    <t>辅音 n</t>
+  </si>
+  <si>
+    <t>multifaceted</t>
+  </si>
+  <si>
+    <t>多面的 adj</t>
+  </si>
+  <si>
+    <t>leans</t>
+  </si>
+  <si>
+    <t>倾斜，精益 n</t>
+  </si>
+  <si>
+    <t>/li:nz /</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>注释 n</t>
+  </si>
+  <si>
+    <t>controversial</t>
+  </si>
+  <si>
+    <t>有争议的adj</t>
+  </si>
+  <si>
+    <t>incentive</t>
+  </si>
+  <si>
+    <t>动机 n.</t>
+  </si>
+  <si>
+    <t>prosperity</t>
+  </si>
+  <si>
+    <t>繁荣成功 n.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspiration </t>
+  </si>
+  <si>
+    <t>渴望 抱负 n</t>
+  </si>
+  <si>
+    <t>confess</t>
+  </si>
+  <si>
+    <t>confect ； confection</t>
+  </si>
+  <si>
+    <t>糖果，蜜饯</t>
+  </si>
+  <si>
+    <t>招供，供认 v.</t>
+  </si>
+  <si>
+    <t>envision</t>
+  </si>
+  <si>
+    <t>入侵，侵略 n.</t>
+  </si>
+  <si>
+    <r>
+      <t>invasion  /ɪnˈv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ʒ(ə)n/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/ɪnˈv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ʒ(ə)n/</t>
+    </r>
+  </si>
+  <si>
+    <t>想象，预想 v.</t>
+  </si>
+  <si>
+    <t>lenient</t>
+  </si>
+  <si>
+    <t>宽大的 仁慈的 adj</t>
+  </si>
+  <si>
+    <t>hostile</t>
+  </si>
+  <si>
+    <t>敌对的 adj</t>
+  </si>
+  <si>
+    <t>castle  /ˈkæs(ə)l/</t>
+  </si>
+  <si>
+    <t>城堡</t>
+  </si>
+  <si>
+    <t>moderation</t>
+  </si>
+  <si>
+    <t>适度， 截至 n.</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mission</t>
+    </r>
+  </si>
+  <si>
+    <t>许可，权限 n.</t>
+  </si>
+  <si>
+    <t>spinal</t>
+  </si>
+  <si>
+    <t>脊柱 n</t>
+  </si>
+  <si>
+    <r>
+      <t>spi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ing</t>
+    </r>
+  </si>
+  <si>
+    <t>纺线， 快速旋转</t>
+  </si>
+  <si>
+    <r>
+      <t>supp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>le</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mented</t>
+    </r>
+  </si>
+  <si>
+    <t>补充 增补 v.</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作家 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> [ˈɔː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>θə(r)]</t>
+    </r>
+  </si>
+  <si>
+    <t>consciousness</t>
+  </si>
+  <si>
+    <t>意识，知觉 n</t>
+  </si>
+  <si>
+    <t>controversy</t>
+  </si>
+  <si>
+    <t>争论，论战 n</t>
+  </si>
+  <si>
+    <t>convergence</t>
+  </si>
+  <si>
+    <t>收敛，会聚n.</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>药物，疗法 n.</t>
+  </si>
+  <si>
+    <t>demographic</t>
+  </si>
+  <si>
+    <t>人口结构的 adj</t>
+  </si>
+  <si>
+    <t>演示，展示 v.</t>
+  </si>
+  <si>
+    <t>diffident</t>
+  </si>
+  <si>
+    <t>缺乏自信的 adj</t>
+  </si>
+  <si>
+    <t>habitant</t>
+  </si>
+  <si>
+    <t>居民n</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>栖息地 n</t>
+  </si>
+  <si>
+    <t>proponent</t>
+  </si>
+  <si>
+    <t>支持者 n</t>
+  </si>
+  <si>
+    <t>prospective</t>
+  </si>
+  <si>
+    <t>视角，观点 n</t>
+  </si>
+  <si>
+    <t>simplicity</t>
+  </si>
+  <si>
+    <t>简单 朴素 n</t>
+  </si>
+  <si>
+    <t>场景场面 奇观</t>
+  </si>
+  <si>
+    <t>[ˈspektəkl]</t>
+  </si>
+  <si>
+    <r>
+      <t>spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>tacle</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">splashes </t>
+  </si>
+  <si>
+    <t>色斑，散点</t>
+  </si>
+  <si>
+    <t>cautionary</t>
+  </si>
+  <si>
+    <t>警告的 adj</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>电路 回路n</t>
+  </si>
+  <si>
+    <t>dinosaur</t>
+  </si>
+  <si>
+    <t>恐龙</t>
+  </si>
+  <si>
+    <r>
+      <t>daɪnə,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sɔ:z]</t>
+    </r>
+  </si>
+  <si>
+    <t>pasture</t>
+  </si>
+  <si>
+    <t>牧场</t>
+  </si>
+  <si>
+    <t>undoubtedly</t>
+  </si>
+  <si>
+    <t>确实的 毋庸置疑的 adv</t>
+  </si>
+  <si>
+    <t>baffle</t>
+  </si>
+  <si>
+    <t>使困惑，难住 v</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>bɔːrd/</t>
+  </si>
+  <si>
+    <t>董事会， 黑板</t>
+  </si>
+  <si>
+    <t>bɔːd/</t>
+  </si>
+  <si>
+    <t>bored 无聊</t>
+  </si>
+  <si>
+    <t>paddle</t>
+  </si>
+  <si>
+    <t>划桨 用浆滑 n &amp; v</t>
+  </si>
+  <si>
+    <t>[ˈpædl]</t>
+  </si>
+  <si>
+    <t>pedal /ˈped(ə)l/</t>
+  </si>
+  <si>
+    <t>脚踏板</t>
+  </si>
+  <si>
+    <t>pragmatic</t>
+  </si>
+  <si>
+    <t>实用主义的</t>
+  </si>
+  <si>
+    <t>主要的 adj</t>
+  </si>
+  <si>
+    <r>
+      <t>pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>domin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ant</t>
+    </r>
+  </si>
+  <si>
+    <t>subordinated</t>
+  </si>
+  <si>
+    <t>列入次要地位的 adj</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>原料</t>
+  </si>
+  <si>
+    <t>propagate</t>
+  </si>
+  <si>
+    <t>传播，繁殖 v</t>
+  </si>
+  <si>
+    <t>predator</t>
+  </si>
+  <si>
+    <t>捕食者 n</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>可笑的 adj</t>
+  </si>
+  <si>
+    <t>推进 推进力 n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [prəˈpʌlʃn]</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>/prəˈpɔːrʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>occurs</t>
+  </si>
+  <si>
+    <t>发生，发现 v</t>
+  </si>
+  <si>
+    <t>有希望的,未来的，预期的 adj</t>
+  </si>
+  <si>
+    <t>empathy</t>
+  </si>
+  <si>
+    <t>同理心，同情 n</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
+    <t>分散，散布 n</t>
+  </si>
+  <si>
+    <t>perspective /pəˈspektɪv/</t>
+  </si>
+  <si>
+    <r>
+      <t>/p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>əˈspektɪv/</t>
+    </r>
+  </si>
+  <si>
+    <t>ˈkɔːʃəneri/  ˈkɔː 美音发音接近 ka</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˈem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>əθi]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>em</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>pha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sis 重点 重要性 n</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8846,6 +10252,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -8873,7 +10293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8935,12 +10355,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9999,8 +11427,8 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12219,7 +13647,7 @@
       <c r="D73" t="s">
         <v>1432</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="23" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -12317,7 +13745,7 @@
       <c r="D87" t="s">
         <v>1459</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="23" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -12392,7 +13820,7 @@
       <c r="D97" t="s">
         <v>1477</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="E97" s="23" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -12400,7 +13828,7 @@
       <c r="D99" t="s">
         <v>1479</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="23" t="s">
         <v>1480</v>
       </c>
       <c r="F99" t="s">
@@ -12513,7 +13941,7 @@
       <c r="D118" t="s">
         <v>1507</v>
       </c>
-      <c r="E118" s="25" t="s">
+      <c r="E118" s="24" t="s">
         <v>1508</v>
       </c>
     </row>
@@ -12521,7 +13949,7 @@
       <c r="D120" t="s">
         <v>1510</v>
       </c>
-      <c r="E120" s="26" t="s">
+      <c r="E120" s="25" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -12533,473 +13961,1845 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="5" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>20231110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="26" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="26"/>
+      <c r="D82" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B10" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D39" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>1326</v>
+      <c r="B177" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1888</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:D58">
+    <sortCondition ref="A9:A58"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A81:A82"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13010,7 +15810,7 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richie/Github/EnglishSummary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RR/Documents/GitHub/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED730F9-6F37-8149-927C-572593D38797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D71C68-3D4B-E94C-8D42-AE630347F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="1380" windowWidth="18800" windowHeight="13500" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5240" yWindow="500" windowWidth="20800" windowHeight="13480" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="SST Practise" sheetId="14" r:id="rId11"/>
     <sheet name="易混单词" sheetId="18" r:id="rId12"/>
     <sheet name="RA发音纠正" sheetId="7" r:id="rId13"/>
-    <sheet name="FIB单词" sheetId="15" r:id="rId14"/>
+    <sheet name="FIB易混单词" sheetId="15" r:id="rId14"/>
     <sheet name="FIB固定搭配" sheetId="26" r:id="rId15"/>
   </sheets>
   <definedNames>
@@ -44,9 +44,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="2343">
   <si>
     <t>Hello, This  is Guannan Ruan</t>
   </si>
@@ -10132,6 +10135,1355 @@
       </rPr>
       <t>sis 重点 重要性 n</t>
     </r>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t>结果，</t>
+  </si>
+  <si>
+    <t>顺序</t>
+  </si>
+  <si>
+    <t>mutate</t>
+  </si>
+  <si>
+    <t>v. 变异，突变</t>
+  </si>
+  <si>
+    <t>notable</t>
+  </si>
+  <si>
+    <t>著名的，成名的</t>
+  </si>
+  <si>
+    <t>while/ whilst</t>
+  </si>
+  <si>
+    <t>同时 /  虽然</t>
+  </si>
+  <si>
+    <t>surge</t>
+  </si>
+  <si>
+    <t>激增，汹涌 爆发</t>
+  </si>
+  <si>
+    <t>wrinkle</t>
+  </si>
+  <si>
+    <t>皱纹</t>
+  </si>
+  <si>
+    <t>n. 疗法</t>
+  </si>
+  <si>
+    <t>tribute</t>
+  </si>
+  <si>
+    <t>retribution</t>
+  </si>
+  <si>
+    <t>v. 致敬</t>
+  </si>
+  <si>
+    <t>惩罚,报应</t>
+  </si>
+  <si>
+    <t>correspondingly</t>
+  </si>
+  <si>
+    <t>adv 相应地</t>
+  </si>
+  <si>
+    <t>conversely</t>
+  </si>
+  <si>
+    <t>adv 相反地，强调对立性</t>
+  </si>
+  <si>
+    <t>in contrast</t>
+  </si>
+  <si>
+    <t>adv 相反地，强调比较</t>
+  </si>
+  <si>
+    <t>concoct</t>
+  </si>
+  <si>
+    <t>编造 虚构</t>
+  </si>
+  <si>
+    <t>fabricate</t>
+  </si>
+  <si>
+    <t>制造，捏造</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>改编， 适应</t>
+  </si>
+  <si>
+    <t>adpot</t>
+  </si>
+  <si>
+    <t>采取，采用</t>
+  </si>
+  <si>
+    <t>有可能的， 有希望的  adj  n</t>
+  </si>
+  <si>
+    <t>exertion</t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t>formative</t>
+  </si>
+  <si>
+    <t>早起形成的 adj</t>
+  </si>
+  <si>
+    <t>tranquility</t>
+  </si>
+  <si>
+    <t>安宁</t>
+  </si>
+  <si>
+    <t>allegiance</t>
+  </si>
+  <si>
+    <t>忠诚，拥戴</t>
+  </si>
+  <si>
+    <t>subjugation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n 征服 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjoining </t>
+  </si>
+  <si>
+    <t>vt-ing 邻近</t>
+  </si>
+  <si>
+    <t>adhering</t>
+  </si>
+  <si>
+    <t>vi-ing  附着 + to sth</t>
+  </si>
+  <si>
+    <t>delineated</t>
+  </si>
+  <si>
+    <t>adj 详细划定的</t>
+  </si>
+  <si>
+    <t>aphorism /'æfə.rɪz(ə)m/</t>
+  </si>
+  <si>
+    <t>格言，警句</t>
+  </si>
+  <si>
+    <t>tendency</t>
+  </si>
+  <si>
+    <t>人类自有的某种倾向性</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>社会潮流的趋向</t>
+  </si>
+  <si>
+    <t>glorify</t>
+  </si>
+  <si>
+    <t>歌颂，赞美</t>
+  </si>
+  <si>
+    <t>bravery</t>
+  </si>
+  <si>
+    <t>勇气，勇敢的行为</t>
+  </si>
+  <si>
+    <t>bravado</t>
+  </si>
+  <si>
+    <t>虚张声势</t>
+  </si>
+  <si>
+    <t>penetrate</t>
+  </si>
+  <si>
+    <t>penetration</t>
+  </si>
+  <si>
+    <t>渗入 v</t>
+  </si>
+  <si>
+    <t>versatile</t>
+  </si>
+  <si>
+    <t>多功能的</t>
+  </si>
+  <si>
+    <t>thrived</t>
+  </si>
+  <si>
+    <t>兴荣，繁荣，茁壮成长</t>
+  </si>
+  <si>
+    <t>pore over</t>
+  </si>
+  <si>
+    <t>认真研读</t>
+  </si>
+  <si>
+    <t>understand that</t>
+  </si>
+  <si>
+    <t>据说，听人说</t>
+  </si>
+  <si>
+    <t>utterances</t>
+  </si>
+  <si>
+    <t>言语</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behind sth were </t>
+  </si>
+  <si>
+    <t>behind sth是主语</t>
+  </si>
+  <si>
+    <t>thought processes</t>
+  </si>
+  <si>
+    <t>思想过程</t>
+  </si>
+  <si>
+    <t>fashion a way</t>
+  </si>
+  <si>
+    <t>奠定了一个基础</t>
+  </si>
+  <si>
+    <t>oblivion</t>
+  </si>
+  <si>
+    <t>遗忘，淹没，赦免</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an array of </t>
+  </si>
+  <si>
+    <t>一系列  + 可数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a sequence of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">一系列（包含一定顺序性）的 </t>
+  </si>
+  <si>
+    <t>metabolism</t>
+  </si>
+  <si>
+    <t>新陈代谢</t>
+  </si>
+  <si>
+    <t>sthA associated with sthB</t>
+  </si>
+  <si>
+    <t>伴随着sthB的 sthA</t>
+  </si>
+  <si>
+    <t>sbA is N times as adj/adv （to do sth ） as sbB</t>
+  </si>
+  <si>
+    <t>sbA 是adj的 是sbB的 N times</t>
+  </si>
+  <si>
+    <t>develop conditions</t>
+  </si>
+  <si>
+    <t>患病</t>
+  </si>
+  <si>
+    <t>cure , remedy</t>
+  </si>
+  <si>
+    <t>chronicle</t>
+  </si>
+  <si>
+    <t>长期记录</t>
+  </si>
+  <si>
+    <t>exploite</t>
+  </si>
+  <si>
+    <t>开发，剥削</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>明确的，清晰地</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>探索</t>
+  </si>
+  <si>
+    <t>get up close  and personal</t>
+  </si>
+  <si>
+    <t>亲密接触</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consisit of </t>
+  </si>
+  <si>
+    <t>feat</t>
+  </si>
+  <si>
+    <t>功绩</t>
+  </si>
+  <si>
+    <t>adverse</t>
+  </si>
+  <si>
+    <t>advance</t>
+  </si>
+  <si>
+    <t>n. 前进，提前</t>
+  </si>
+  <si>
+    <t>adj. 不利的，相反的，敌对的</t>
+  </si>
+  <si>
+    <t>observe</t>
+  </si>
+  <si>
+    <t>v . 观察， 遵循</t>
+  </si>
+  <si>
+    <t>corolary</t>
+  </si>
+  <si>
+    <t>必然的结果，推论的结论</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in regard to </t>
+  </si>
+  <si>
+    <t>关于</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial </t>
+  </si>
+  <si>
+    <t>试用，试错</t>
+  </si>
+  <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t>展现</t>
+  </si>
+  <si>
+    <t>self-fulfilling</t>
+  </si>
+  <si>
+    <t>自我实现</t>
+  </si>
+  <si>
+    <t>prophecy</t>
+  </si>
+  <si>
+    <t>预言</t>
+  </si>
+  <si>
+    <t>prohet</t>
+  </si>
+  <si>
+    <t>先知</t>
+  </si>
+  <si>
+    <t>stipulation</t>
+  </si>
+  <si>
+    <t>n. 规定，合同</t>
+  </si>
+  <si>
+    <t>正是。。。事</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's what they can do as groups that () =
+it is （sth that they can do ）主语  that （再次定语从句修饰）
+</t>
+  </si>
+  <si>
+    <t>picnic</t>
+  </si>
+  <si>
+    <t>野餐</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>惊慌，惊恐</t>
+  </si>
+  <si>
+    <t>panic-stricken</t>
+  </si>
+  <si>
+    <t>惊慌失措的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggest </t>
+  </si>
+  <si>
+    <t>表明</t>
+  </si>
+  <si>
+    <t>come as a relief</t>
+  </si>
+  <si>
+    <t>松了一口气；解脱</t>
+  </si>
+  <si>
+    <t>erode</t>
+  </si>
+  <si>
+    <t>vt 侵蚀，消耗</t>
+  </si>
+  <si>
+    <t>spectator</t>
+  </si>
+  <si>
+    <t>体育场的观众</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer to </t>
+  </si>
+  <si>
+    <t>指的是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as to </t>
+  </si>
+  <si>
+    <t>protray</t>
+  </si>
+  <si>
+    <t>vi.  描述</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>声称</t>
+  </si>
+  <si>
+    <t>comprehend</t>
+  </si>
+  <si>
+    <t>v 理解</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>adj. 综合性的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer to as </t>
+  </si>
+  <si>
+    <t>被认为</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>make sb tick</t>
+  </si>
+  <si>
+    <t>n. 可能性,前景</t>
+  </si>
+  <si>
+    <t>sb 所渴望的</t>
+  </si>
+  <si>
+    <t>come to promience</t>
+  </si>
+  <si>
+    <t>v 成名</t>
+  </si>
+  <si>
+    <t>ponder</t>
+  </si>
+  <si>
+    <t>思考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the essence of sth </t>
+  </si>
+  <si>
+    <t>sth的本质</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in action </t>
+  </si>
+  <si>
+    <t>起作用</t>
+  </si>
+  <si>
+    <t>rudimentary</t>
+  </si>
+  <si>
+    <t>adj. 基本的</t>
+  </si>
+  <si>
+    <t>grounds</t>
+  </si>
+  <si>
+    <t>土地， 充分的理由</t>
+  </si>
+  <si>
+    <t>venerate</t>
+  </si>
+  <si>
+    <t>崇拜</t>
+  </si>
+  <si>
+    <t>adorn</t>
+  </si>
+  <si>
+    <t>粉饰，装饰</t>
+  </si>
+  <si>
+    <t>obscure</t>
+  </si>
+  <si>
+    <t>vt 遮盖，掩饰</t>
+  </si>
+  <si>
+    <t>remnant</t>
+  </si>
+  <si>
+    <t>n. 残迹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be demanding </t>
+  </si>
+  <si>
+    <t>被需要</t>
+  </si>
+  <si>
+    <t>scoop</t>
+  </si>
+  <si>
+    <t>赢得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetch around </t>
+  </si>
+  <si>
+    <t>售价高达</t>
+  </si>
+  <si>
+    <t>contribute</t>
+  </si>
+  <si>
+    <t>vi  贡献， + to</t>
+  </si>
+  <si>
+    <t>contributory</t>
+  </si>
+  <si>
+    <t>有助于的.. 造成的</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>n. 价值</t>
+  </si>
+  <si>
+    <t>价值观</t>
+  </si>
+  <si>
+    <t>apparent</t>
+  </si>
+  <si>
+    <t>显而易见的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be shown to do </t>
+  </si>
+  <si>
+    <t>被显示做某事</t>
+  </si>
+  <si>
+    <t>complmentary</t>
+  </si>
+  <si>
+    <t>称赞的</t>
+  </si>
+  <si>
+    <t>compensatory</t>
+  </si>
+  <si>
+    <t>补偿的</t>
+  </si>
+  <si>
+    <t>compendious</t>
+  </si>
+  <si>
+    <t>简明的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conform to </t>
+  </si>
+  <si>
+    <t>顺从</t>
+  </si>
+  <si>
+    <t>diverge from</t>
+  </si>
+  <si>
+    <t>分叉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assimilate to </t>
+  </si>
+  <si>
+    <t>融入（社区，社会）</t>
+  </si>
+  <si>
+    <t>perception</t>
+  </si>
+  <si>
+    <t>n. 感知，看法。</t>
+  </si>
+  <si>
+    <t>v 淹没</t>
+  </si>
+  <si>
+    <t>examed</t>
+  </si>
+  <si>
+    <t>v 检验</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasoned that </t>
+  </si>
+  <si>
+    <t>推断</t>
+  </si>
+  <si>
+    <t>sought-after</t>
+  </si>
+  <si>
+    <t>最受欢迎的</t>
+  </si>
+  <si>
+    <t>patronage</t>
+  </si>
+  <si>
+    <t>客户光顾量</t>
+  </si>
+  <si>
+    <t>patron</t>
+  </si>
+  <si>
+    <t>赞助商， 主顾，顾客</t>
+  </si>
+  <si>
+    <t>few border</t>
+  </si>
+  <si>
+    <t>没有边界的</t>
+  </si>
+  <si>
+    <t>progression</t>
+  </si>
+  <si>
+    <t>n. 进展</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t>步骤，程序，变化过程</t>
+  </si>
+  <si>
+    <t>法律步骤，程序</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>拥有的，</t>
+  </si>
+  <si>
+    <t>owe</t>
+  </si>
+  <si>
+    <t>v. 归因于</t>
+  </si>
+  <si>
+    <t>与sth背道而驰</t>
+  </si>
+  <si>
+    <t>run counter to sth</t>
+  </si>
+  <si>
+    <t>intractable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be intended for </t>
+  </si>
+  <si>
+    <t>为…打算</t>
+  </si>
+  <si>
+    <t>intend</t>
+  </si>
+  <si>
+    <t>棘手的</t>
+  </si>
+  <si>
+    <t>打算</t>
+  </si>
+  <si>
+    <t>打算，倾向</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>soundly</t>
+  </si>
+  <si>
+    <t>酣畅地，完美地</t>
+  </si>
+  <si>
+    <t>合理的， 坚实的</t>
+  </si>
+  <si>
+    <t>center attention</t>
+  </si>
+  <si>
+    <t>集中注意力</t>
+  </si>
+  <si>
+    <t>adamant</t>
+  </si>
+  <si>
+    <t>坚定不移的</t>
+  </si>
+  <si>
+    <t>noticeable</t>
+  </si>
+  <si>
+    <t>著名的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notable for </t>
+  </si>
+  <si>
+    <t>以。。。而著称</t>
+  </si>
+  <si>
+    <t>metaphor</t>
+  </si>
+  <si>
+    <t>比喻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">present sb with sth </t>
+  </si>
+  <si>
+    <t>把sth 呈现给sb</t>
+  </si>
+  <si>
+    <t>观察， 庆祝</t>
+  </si>
+  <si>
+    <t>provision</t>
+  </si>
+  <si>
+    <t>供应，提供</t>
+  </si>
+  <si>
+    <t>普通的</t>
+  </si>
+  <si>
+    <t>convectional</t>
+  </si>
+  <si>
+    <t>可对流的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glaciers </t>
+  </si>
+  <si>
+    <t>冰川</t>
+  </si>
+  <si>
+    <t>liberate</t>
+  </si>
+  <si>
+    <t>v. 自由，解放</t>
+  </si>
+  <si>
+    <t>deliberate</t>
+  </si>
+  <si>
+    <t>adj. 有意的</t>
+  </si>
+  <si>
+    <t>hamper</t>
+  </si>
+  <si>
+    <t>v.  阻碍</t>
+  </si>
+  <si>
+    <t>A result in B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 导致B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emerge as </t>
+  </si>
+  <si>
+    <t>成为，成长成为</t>
+  </si>
+  <si>
+    <t>tangle</t>
+  </si>
+  <si>
+    <t>纠结</t>
+  </si>
+  <si>
+    <t>oblivious</t>
+  </si>
+  <si>
+    <t>obvious</t>
+  </si>
+  <si>
+    <t>adj. 绝对的</t>
+  </si>
+  <si>
+    <t>adj.不易察觉的，遗忘的，健忘的</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>adv. 可能地</t>
+  </si>
+  <si>
+    <t>probe</t>
+  </si>
+  <si>
+    <t>v. 调查，打探，研究</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>v. 反对，抵抗</t>
+  </si>
+  <si>
+    <t>subordinate</t>
+  </si>
+  <si>
+    <t>n. 下属</t>
+  </si>
+  <si>
+    <t>reassurance</t>
+  </si>
+  <si>
+    <t>n. 安慰，慰藉</t>
+  </si>
+  <si>
+    <t>discourse</t>
+  </si>
+  <si>
+    <t>n. 话语，讲演</t>
+  </si>
+  <si>
+    <t>disclosure</t>
+  </si>
+  <si>
+    <t>v. 公开，揭露</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be herald as </t>
+  </si>
+  <si>
+    <t>被宣称是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archipelago </t>
+  </si>
+  <si>
+    <t>n. 群岛</t>
+  </si>
+  <si>
+    <t>indifference</t>
+  </si>
+  <si>
+    <t>adj. 莫不关心的</t>
+  </si>
+  <si>
+    <t>derision</t>
+  </si>
+  <si>
+    <t>adj. 嘲笑的</t>
+  </si>
+  <si>
+    <t>radical</t>
+  </si>
+  <si>
+    <t>adj. 激进的，根本的，彻底的</t>
+  </si>
+  <si>
+    <t>rational</t>
+  </si>
+  <si>
+    <t>adj. 理性的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be advanced </t>
+  </si>
+  <si>
+    <t>被推进</t>
+  </si>
+  <si>
+    <t>potent</t>
+  </si>
+  <si>
+    <t>adj. 强有力的</t>
+  </si>
+  <si>
+    <t>potential</t>
+  </si>
+  <si>
+    <t>adj. 潜在的</t>
+  </si>
+  <si>
+    <t>行政的</t>
+  </si>
+  <si>
+    <t>levy duties</t>
+  </si>
+  <si>
+    <t>征收关税</t>
+  </si>
+  <si>
+    <t>defect</t>
+  </si>
+  <si>
+    <t>detect</t>
+  </si>
+  <si>
+    <t>v. 探查</t>
+  </si>
+  <si>
+    <t>v 叛变， n. 缺点，缺陷</t>
+  </si>
+  <si>
+    <t>fallow</t>
+  </si>
+  <si>
+    <t>adj. 休耕的</t>
+  </si>
+  <si>
+    <t>fertile</t>
+  </si>
+  <si>
+    <t>adj.  肥沃的</t>
+  </si>
+  <si>
+    <t>nourishment</t>
+  </si>
+  <si>
+    <t>n. 营养</t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>n. 创伤， 伤口</t>
+  </si>
+  <si>
+    <t>be capable of n/n.doing</t>
+  </si>
+  <si>
+    <t>v. 能够</t>
+  </si>
+  <si>
+    <t>drawl</t>
+  </si>
+  <si>
+    <t>n.慢慢的语调</t>
+  </si>
+  <si>
+    <t>commemorate</t>
+  </si>
+  <si>
+    <t>v. 庆祝，纪念</t>
+  </si>
+  <si>
+    <t>mourned</t>
+  </si>
+  <si>
+    <t>哀悼</t>
+  </si>
+  <si>
+    <t>it featured sth</t>
+  </si>
+  <si>
+    <t>v. 以sth 为特色</t>
+  </si>
+  <si>
+    <t>thus far</t>
+  </si>
+  <si>
+    <t>迄今为止</t>
+  </si>
+  <si>
+    <t>illusive</t>
+  </si>
+  <si>
+    <t>adj. 错觉的，迷幻的</t>
+  </si>
+  <si>
+    <t>incorporate</t>
+  </si>
+  <si>
+    <t>v. 包含</t>
+  </si>
+  <si>
+    <t>incooperate</t>
+  </si>
+  <si>
+    <t>adj. 不合作的</t>
+  </si>
+  <si>
+    <t>compelling</t>
+  </si>
+  <si>
+    <t>adj 令人信服的， 强制的，强迫的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vacant </t>
+  </si>
+  <si>
+    <t>adj 空闲的</t>
+  </si>
+  <si>
+    <t>adj 迷幻的</t>
+  </si>
+  <si>
+    <t>illusion</t>
+  </si>
+  <si>
+    <t>n. 错觉，幻觉</t>
+  </si>
+  <si>
+    <t>ethos</t>
+  </si>
+  <si>
+    <t>理念，风气，</t>
+  </si>
+  <si>
+    <t>n. 共情</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>旅游胜地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fork </t>
+  </si>
+  <si>
+    <t>岔路，叉子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a body of </t>
+  </si>
+  <si>
+    <t>一组， 一系列</t>
+  </si>
+  <si>
+    <t>poise</t>
+  </si>
+  <si>
+    <t>v （保持某种状态）准备  + to</t>
+  </si>
+  <si>
+    <t>ignite</t>
+  </si>
+  <si>
+    <t>v. 点火，</t>
+  </si>
+  <si>
+    <t>propensity</t>
+  </si>
+  <si>
+    <t>行为倾向，习性</t>
+  </si>
+  <si>
+    <t>insist on</t>
+  </si>
+  <si>
+    <t>bigotry</t>
+  </si>
+  <si>
+    <t>persecution</t>
+  </si>
+  <si>
+    <t>n . 偏执</t>
+  </si>
+  <si>
+    <t>n. 迫害</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free enquiry </t>
+  </si>
+  <si>
+    <t>自由研究</t>
+  </si>
+  <si>
+    <t>analogous</t>
+  </si>
+  <si>
+    <t>adj 相似的</t>
+  </si>
+  <si>
+    <t>utmost</t>
+  </si>
+  <si>
+    <t>最大程度的重要和严重性</t>
+  </si>
+  <si>
+    <t>abound</t>
+  </si>
+  <si>
+    <t>vi  大量存在</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>adj 合理的</t>
+  </si>
+  <si>
+    <t>contagious</t>
+  </si>
+  <si>
+    <t>adj 传染的</t>
+  </si>
+  <si>
+    <t>champion</t>
+  </si>
+  <si>
+    <t>v. 捍卫， 为…斗争</t>
+  </si>
+  <si>
+    <t>besiege</t>
+  </si>
+  <si>
+    <t>vt 包围， 围困</t>
+  </si>
+  <si>
+    <t>forensics</t>
+  </si>
+  <si>
+    <t>法证学</t>
+  </si>
+  <si>
+    <t>purging</t>
+  </si>
+  <si>
+    <t>adj 净化的</t>
+  </si>
+  <si>
+    <t>contaminating</t>
+  </si>
+  <si>
+    <t>ad. 污染的</t>
+  </si>
+  <si>
+    <t>remorse</t>
+  </si>
+  <si>
+    <t>n.懊悔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be meant to do </t>
+  </si>
+  <si>
+    <t>本应</t>
+  </si>
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>v 收获，</t>
+  </si>
+  <si>
+    <t>v 播撒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton on to sth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">意识到 </t>
+  </si>
+  <si>
+    <t>gentrification</t>
+  </si>
+  <si>
+    <t>中产阶级化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be close to doing sth </t>
+  </si>
+  <si>
+    <t>即将做某事</t>
+  </si>
+  <si>
+    <t>possession</t>
+  </si>
+  <si>
+    <t>财产</t>
+  </si>
+  <si>
+    <t>reep into one's mind</t>
+  </si>
+  <si>
+    <t>潜入脑海</t>
+  </si>
+  <si>
+    <t>adj 渐进的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rigid </t>
+  </si>
+  <si>
+    <t>adj 死板的</t>
+  </si>
+  <si>
+    <t>impose</t>
+  </si>
+  <si>
+    <t>v 增强</t>
+  </si>
+  <si>
+    <t>lif</t>
+  </si>
+  <si>
+    <t>v 释放，缓解</t>
+  </si>
+  <si>
+    <t>discretion</t>
+  </si>
+  <si>
+    <t>n. 谨慎，慎重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass on </t>
+  </si>
+  <si>
+    <t>传递</t>
+  </si>
+  <si>
+    <t>entail</t>
+  </si>
+  <si>
+    <t>需要， 牵涉</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>adj 狂野的，野蛮的，为生长的</t>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>adj 温和的</t>
+  </si>
+  <si>
+    <t>laid pipeline</t>
+  </si>
+  <si>
+    <t>铺好道路</t>
+  </si>
+  <si>
+    <t>rockier</t>
+  </si>
+  <si>
+    <t>adj  坎坷的，岩石的</t>
+  </si>
+  <si>
+    <t>audacious</t>
+  </si>
+  <si>
+    <t>adj. 敢冒险的</t>
+  </si>
+  <si>
+    <t>obsessively</t>
+  </si>
+  <si>
+    <t>adv 执迷地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counselling </t>
+  </si>
+  <si>
+    <t>adj 辅助的</t>
+  </si>
+  <si>
+    <t>v 问询，普通问询</t>
+  </si>
+  <si>
+    <t>enquiry</t>
+  </si>
+  <si>
+    <t>consult</t>
+  </si>
+  <si>
+    <t>v 咨询，向专业人员咨询</t>
   </si>
 </sst>
 </file>
@@ -10360,14 +11712,14 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11425,10 +12777,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X86"/>
+  <dimension ref="A1:X194"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12607,6 +13959,12 @@
       <c r="F40" s="5" t="s">
         <v>1220</v>
       </c>
+      <c r="G40" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>1903</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
@@ -12618,12 +13976,6 @@
       <c r="F41" s="5" t="s">
         <v>1221</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>441</v>
-      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
@@ -12658,12 +14010,6 @@
       <c r="F43" s="5" t="s">
         <v>1223</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>443</v>
-      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -12683,12 +14029,6 @@
       <c r="A45" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>444</v>
-      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
@@ -12701,10 +14041,10 @@
         <v>1166</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -12720,12 +14060,6 @@
       <c r="E47" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -12734,6 +14068,12 @@
       <c r="E48" s="5" t="s">
         <v>1351</v>
       </c>
+      <c r="G48" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -12751,9 +14091,6 @@
       <c r="F49" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>1346</v>
-      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -12772,10 +14109,10 @@
         <v>1355</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>1347</v>
+        <v>430</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>1348</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -12795,16 +14132,22 @@
         <v>1357</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1349</v>
+        <v>445</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>1350</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>267</v>
       </c>
+      <c r="G52" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
@@ -12828,10 +14171,7 @@
         <v>1188</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>1398</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>1399</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -12839,10 +14179,10 @@
         <v>493</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1403</v>
+        <v>2015</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>1404</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -12853,10 +14193,10 @@
         <v>1189</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>1400</v>
+        <v>1347</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>1401</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -12867,10 +14207,10 @@
         <v>1190</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>1392</v>
+        <v>1349</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>1402</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -12888,6 +14228,12 @@
       <c r="A59" s="5" t="s">
         <v>1124</v>
       </c>
+      <c r="G59" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
@@ -12902,6 +14248,12 @@
       <c r="D60" s="5" t="s">
         <v>1523</v>
       </c>
+      <c r="G60" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
@@ -12913,11 +14265,23 @@
       <c r="D61" s="5" t="s">
         <v>1525</v>
       </c>
+      <c r="G61" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>1136</v>
       </c>
+      <c r="G62" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -12940,8 +14304,14 @@
       <c r="D64" s="5" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G64" s="5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>1367</v>
       </c>
@@ -12954,8 +14324,14 @@
       <c r="D65" s="5" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G65" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1152</v>
       </c>
@@ -12966,54 +14342,84 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>1157</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>1173</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="5" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>1175</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="5" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>1182</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="5" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>1183</v>
       </c>
@@ -13021,54 +14427,90 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>1198</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>1200</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>1204</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="5" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>1206</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>1208</v>
       </c>
@@ -13076,30 +14518,898 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>1212</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="5" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>1327</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>1533</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="5" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="5" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="5" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="5" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>2338</v>
       </c>
     </row>
   </sheetData>
@@ -13116,7 +15426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -13961,13 +16271,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D179" sqref="D179"/>
+      <selection pane="bottomRight" activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13980,12 +16290,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -14043,20 +16353,20 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>1535</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>1680</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>1536</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>1537</v>
       </c>
     </row>
@@ -14651,1146 +16961,1554 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>1614</v>
+      <c r="D76" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>1595</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>1736</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="26" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
         <v>1369</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="D82" s="1" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="28"/>
+      <c r="D83" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>1605</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1619</v>
+        <v>1611</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1286</v>
+        <v>1620</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>1173</v>
+        <v>1286</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1628</v>
+        <v>1624</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1629</v>
+        <v>1173</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>1632</v>
+        <v>1627</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1635</v>
+        <v>1630</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1637</v>
+        <v>1634</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="1" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>1649</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1654</v>
+        <v>1651</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1697</v>
+        <v>1661</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>1696</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1665</v>
+        <v>1697</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1667</v>
+        <v>1664</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1669</v>
+        <v>1666</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1202</v>
+        <v>1670</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1674</v>
+        <v>1202</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1688</v>
+        <v>1685</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1206</v>
+        <v>1686</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1641</v>
+        <v>1687</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1689</v>
+        <v>1206</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>1691</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1699</v>
+        <v>1693</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>1706</v>
+        <v>1700</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1708</v>
+        <v>1704</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1198</v>
+        <v>1709</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1713</v>
+        <v>1710</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>1717</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>1718</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1725</v>
+        <v>1722</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1733</v>
+        <v>1730</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1735</v>
+        <v>1732</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1179</v>
+        <v>1740</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1749</v>
+        <v>1179</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1757</v>
+        <v>1750</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>1753</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1769</v>
+        <v>1764</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>1767</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>1770</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>1771</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1776</v>
+        <v>1773</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1774</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>1816</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1809</v>
+        <v>1805</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1814</v>
+        <v>1811</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>1812</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1825</v>
+        <v>1822</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>1823</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1831</v>
+        <v>1827</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1835</v>
+        <v>1884</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>1837</v>
+      <c r="D160" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>2109</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>1839</v>
+        <v>2054</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1840</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>1891</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1844</v>
+        <v>1836</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>1837</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1849</v>
+        <v>1842</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>1891</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1853</v>
+        <v>1846</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>1847</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>1859</v>
+        <v>1850</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>1867</v>
+        <v>1854</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1866</v>
+        <v>1856</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>1857</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>1868</v>
+        <v>1859</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1869</v>
+        <v>1860</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>1863</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>1235</v>
+        <v>1872</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1883</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>1885</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>1888</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D187" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D197" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>2342</v>
       </c>
     </row>
   </sheetData>
@@ -15798,7 +18516,7 @@
     <sortCondition ref="A9:A58"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A82:A83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15807,10 +18525,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBD7C48-68A5-A546-9902-757676FC1C71}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15848,6 +18566,457 @@
       </c>
       <c r="C5" t="s">
         <v>1520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2330</v>
       </c>
     </row>
   </sheetData>
@@ -21220,10 +24389,10 @@
   <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RR/Documents/GitHub/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB1CB3E-915A-9E4D-80EC-55CB91369FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAD53F1-1117-1F4D-8B32-58C369DC528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26160" windowHeight="13480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="26160" windowHeight="13480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
     <sheet name="DI" sheetId="6" r:id="rId2"/>
-    <sheet name="SWT" sheetId="4" r:id="rId3"/>
-    <sheet name="WE素材" sheetId="17" r:id="rId4"/>
-    <sheet name="易混单词--已复制" sheetId="18" state="hidden" r:id="rId5"/>
-    <sheet name="记不住单词--已复制" sheetId="28" state="hidden" r:id="rId6"/>
-    <sheet name="RA发音纠正--已复制指单词发音解析" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="FIB易混单词--已复制" sheetId="15" state="hidden" r:id="rId8"/>
-    <sheet name="FIB固定搭配--已复制" sheetId="26" state="hidden" r:id="rId9"/>
+    <sheet name="DI 图片题素材" sheetId="29" r:id="rId3"/>
+    <sheet name="SWT" sheetId="4" r:id="rId4"/>
+    <sheet name="WE素材" sheetId="17" r:id="rId5"/>
+    <sheet name="易混单词--已复制" sheetId="18" state="hidden" r:id="rId6"/>
+    <sheet name="记不住单词--已复制" sheetId="28" state="hidden" r:id="rId7"/>
+    <sheet name="RA发音纠正--已复制指单词发音解析" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="FIB易混单词--已复制" sheetId="15" state="hidden" r:id="rId9"/>
+    <sheet name="FIB固定搭配--已复制" sheetId="26" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FIB易混单词--已复制'!$A$8:$E$136</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'易混单词--已复制'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FIB易混单词--已复制'!$A$8:$E$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'易混单词--已复制'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1715">
   <si>
     <t>Hello, This  is Guannan Ruan</t>
   </si>
@@ -256,9 +257,6 @@
   </si>
   <si>
     <t>organic</t>
-  </si>
-  <si>
-    <t>喵喵模板</t>
   </si>
   <si>
     <t xml:space="preserve">which means that </t>
@@ -7127,6 +7125,269 @@
   </si>
   <si>
     <t>n. 强化加剧</t>
+  </si>
+  <si>
+    <t>植物类</t>
+  </si>
+  <si>
+    <t>flower blossom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">花团，花簇 </t>
+  </si>
+  <si>
+    <t>: /ˈblɒsəm/</t>
+  </si>
+  <si>
+    <t>tree trunk</t>
+  </si>
+  <si>
+    <t>树干</t>
+  </si>
+  <si>
+    <t>branches</t>
+  </si>
+  <si>
+    <t>枝干</t>
+  </si>
+  <si>
+    <t>twig</t>
+  </si>
+  <si>
+    <t>小枝干</t>
+  </si>
+  <si>
+    <t>leaves</t>
+  </si>
+  <si>
+    <t>树叶</t>
+  </si>
+  <si>
+    <t>音标</t>
+  </si>
+  <si>
+    <t>形容词</t>
+  </si>
+  <si>
+    <t>/tuig/</t>
+  </si>
+  <si>
+    <t>green color</t>
+  </si>
+  <si>
+    <t>自然环境类</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>天空</t>
+  </si>
+  <si>
+    <t>ong and stretching 长 且 四散伸展</t>
+  </si>
+  <si>
+    <t>thick 粗壮 ，big and wide</t>
+  </si>
+  <si>
+    <t>大小</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the largest number can be found in A and B, which is around C and D </t>
+  </si>
+  <si>
+    <t>食品类</t>
+  </si>
+  <si>
+    <t>non-staple food</t>
+  </si>
+  <si>
+    <t>副食</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>红酒</t>
+  </si>
+  <si>
+    <t>语料总结</t>
+  </si>
+  <si>
+    <t>下一步</t>
+  </si>
+  <si>
+    <t>followed by that</t>
+  </si>
+  <si>
+    <t>家居类</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>oven</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>壁橱</t>
+  </si>
+  <si>
+    <t>/ˈkʌbərd/</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>square 方形的</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>水池</t>
+  </si>
+  <si>
+    <t>gas cooker</t>
+  </si>
+  <si>
+    <t>燃气灶</t>
+  </si>
+  <si>
+    <t>lawn</t>
+  </si>
+  <si>
+    <t>草地，草坪</t>
+  </si>
+  <si>
+    <t>/lɔːn/</t>
+  </si>
+  <si>
+    <t>green and flat lawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue and clear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weather </t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
+    <t>rainy or sunny</t>
+  </si>
+  <si>
+    <t>macchiato</t>
+  </si>
+  <si>
+    <t>玛奇朵</t>
+  </si>
+  <si>
+    <t>/ˌmɑːkiˈ  ɑːtoʊ/</t>
+  </si>
+  <si>
+    <t>doppio</t>
+  </si>
+  <si>
+    <t>双倍</t>
+  </si>
+  <si>
+    <t>dou pi ou</t>
+  </si>
+  <si>
+    <t>latte</t>
+  </si>
+  <si>
+    <t>拿铁</t>
+  </si>
+  <si>
+    <t>la: tei</t>
+  </si>
+  <si>
+    <t>展现了多种</t>
+  </si>
+  <si>
+    <t>it shows a number of xxxx</t>
+  </si>
+  <si>
+    <t>it shows different kinds of …..</t>
+  </si>
+  <si>
+    <t>patio</t>
+  </si>
+  <si>
+    <t>天井，露台</t>
+  </si>
+  <si>
+    <t>/ˈpætioʊ/</t>
+  </si>
+  <si>
+    <t>方位</t>
+  </si>
+  <si>
+    <t>northern</t>
+  </si>
+  <si>
+    <t>北方的</t>
+  </si>
+  <si>
+    <t>南方的</t>
+  </si>
+  <si>
+    <t>eastern</t>
+  </si>
+  <si>
+    <t>东方的</t>
+  </si>
+  <si>
+    <t>western</t>
+  </si>
+  <si>
+    <r>
+      <t>ˈs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>ʌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ðərn/</t>
+    </r>
+  </si>
+  <si>
+    <t>According to the graph we can see...... has the highest value which is around .......</t>
+  </si>
+  <si>
+    <t>城市类</t>
+  </si>
+  <si>
+    <t>straight dashed line</t>
+  </si>
+  <si>
+    <t>虚线</t>
+  </si>
+  <si>
+    <t>人物动作</t>
+  </si>
+  <si>
+    <t>posture</t>
+  </si>
+  <si>
+    <t>态度，姿势</t>
   </si>
 </sst>
 </file>
@@ -7578,7 +7839,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -7593,27 +7854,524 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBD7C48-68A5-A546-9902-757676FC1C71}">
+  <dimension ref="A2:C59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>794</v>
+      </c>
+      <c r="B28" t="s">
+        <v>796</v>
+      </c>
+      <c r="C28" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>789</v>
+      </c>
+      <c r="B31" t="s">
+        <v>792</v>
+      </c>
+      <c r="C31" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B34" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C42" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>808</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>943</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C70">
+    <sortCondition ref="A1:A70"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="3" max="3" width="14.33203125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -7664,12 +8422,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -7677,7 +8435,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7701,7 +8459,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -7738,7 +8496,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7748,17 +8506,51 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1664</v>
       </c>
     </row>
   </sheetData>
@@ -7768,6 +8560,321 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4745B318-B4FC-EE4E-B419-78F745D8E788}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H1" t="s">
+        <v>810</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>562</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -7856,7 +8963,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -7870,11 +8977,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -7885,22 +8992,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7908,7 +9015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7927,1347 +9034,1347 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1553</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1421</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1347</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1210</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1549</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>1220</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>1367</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>1471</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1322</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1605</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>1481</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>1561</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>1228</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>1459</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>1559</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>1266</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>1506</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30" t="s">
         <v>435</v>
-      </c>
-      <c r="B30" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>1520</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>1375</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>1373</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>1371</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>1324</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>1326</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>1557</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>1567</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>1285</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>1609</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>1218</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>1475</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>1591</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>1504</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>1595</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>1313</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>1527</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>1204</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>1277</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>1563</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>1532</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>1206</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>1547</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>1437</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>1226</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>1343</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>1443</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>1538</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B83" t="s">
         <v>1514</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>1587</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>1473</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>1510</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>1589</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>1257</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>1427</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>1508</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>1174</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>1176</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>1498</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>1251</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>1349</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>1607</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>1307</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>1394</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>1392</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>1555</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>1536</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>1297</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>1540</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>1295</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>1432</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>1565</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>1463</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>1351</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>1569</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>1530</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>1585</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>1603</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>1341</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B160" t="s">
         <v>1355</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>1293</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>1416</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>1315</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>1299</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>1212</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>1461</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>1309</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>1180</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>1237</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>1208</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>1289</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>1551</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>1243</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>1522</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>1345</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>1235</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B187" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>1500</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>1182</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -9279,7 +10386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A1136F-872F-C743-A77D-7C6CCADE4BFE}">
   <dimension ref="A1:V84"/>
   <sheetViews>
@@ -9310,1416 +10417,1416 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U1" t="s">
+        <v>497</v>
+      </c>
+      <c r="V1" t="s">
         <v>498</v>
-      </c>
-      <c r="V1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="U2"/>
       <c r="V2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="E3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="K3" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="M3" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="S3" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U3"/>
       <c r="V3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="H4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="P4" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="V4" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="C5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="C6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="E6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="H6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="C7" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="H7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="K7" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>646</v>
-      </c>
       <c r="M7" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>617</v>
-      </c>
       <c r="P7" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="H8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="C9" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P9" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="C10" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="E10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M10" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>666</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="M11" s="9"/>
       <c r="P11" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>477</v>
-      </c>
       <c r="R11" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="C12" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>494</v>
-      </c>
       <c r="R12" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="C13" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="E13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="R13" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="C14" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="E15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="P15" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="R15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="C16" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="E16" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="C17" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="E17" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="P17" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R17" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="C18" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="E18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="E19" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="P19" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="P20" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R20" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="P21" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R21" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C22" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="E22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="P22" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R22" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="R23" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>669</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="C24" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="E24" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="P24" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>788</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="C29" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="C31" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>808</v>
-      </c>
       <c r="E31" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E32" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="C33" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="C34" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="E34" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="E36" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E37" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="E38" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C40" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>1178</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>449</v>
-      </c>
       <c r="E46" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>451</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>461</v>
-      </c>
       <c r="C49" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>463</v>
-      </c>
       <c r="C50" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>635</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>637</v>
-      </c>
       <c r="E51" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E52" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E55" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>1291</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E59" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>799</v>
-      </c>
       <c r="E60" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>801</v>
-      </c>
       <c r="E61" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>680</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E62" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>803</v>
-      </c>
       <c r="E64" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>805</v>
-      </c>
       <c r="E65" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>1171</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>1189</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>1191</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>1193</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>1197</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>1199</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>1201</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>1214</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>1216</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>1217</v>
       </c>
     </row>
   </sheetData>
@@ -10727,7 +11834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:D91"/>
   <sheetViews>
@@ -10744,743 +11851,743 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
         <v>404</v>
-      </c>
-      <c r="C2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" t="s">
         <v>383</v>
-      </c>
-      <c r="C4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" t="s">
         <v>381</v>
-      </c>
-      <c r="C7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" t="s">
         <v>364</v>
-      </c>
-      <c r="C8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" t="s">
         <v>398</v>
-      </c>
-      <c r="C9" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C10" t="s">
         <v>740</v>
-      </c>
-      <c r="C10" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" t="s">
         <v>362</v>
-      </c>
-      <c r="C15" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C16" t="s">
         <v>771</v>
-      </c>
-      <c r="C16" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" t="s">
         <v>374</v>
-      </c>
-      <c r="C17" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C18" t="s">
         <v>694</v>
-      </c>
-      <c r="C18" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" t="s">
         <v>400</v>
-      </c>
-      <c r="C19" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D23" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>688</v>
+      </c>
+      <c r="C26" t="s">
         <v>689</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>690</v>
-      </c>
-      <c r="D26" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>725</v>
+      </c>
+      <c r="C27" t="s">
         <v>726</v>
-      </c>
-      <c r="C27" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>711</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>712</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>708</v>
+      </c>
+      <c r="C29" t="s">
         <v>709</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>710</v>
-      </c>
-      <c r="D29" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C30" t="s">
+        <v>684</v>
+      </c>
+      <c r="D30" t="s">
         <v>685</v>
-      </c>
-      <c r="D30" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>695</v>
+      </c>
+      <c r="C31" t="s">
         <v>696</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>697</v>
-      </c>
-      <c r="D31" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>757</v>
+      </c>
+      <c r="C32" t="s">
         <v>758</v>
-      </c>
-      <c r="C32" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>772</v>
+      </c>
+      <c r="C36" t="s">
         <v>773</v>
-      </c>
-      <c r="C36" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C37" t="s">
         <v>358</v>
-      </c>
-      <c r="C37" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>782</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>783</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
+        <v>703</v>
+      </c>
+      <c r="C39" t="s">
         <v>704</v>
       </c>
-      <c r="C39" t="s">
-        <v>705</v>
-      </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>750</v>
+      </c>
+      <c r="C41" t="s">
         <v>751</v>
-      </c>
-      <c r="C41" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>748</v>
+      </c>
+      <c r="C42" t="s">
         <v>749</v>
-      </c>
-      <c r="C42" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>765</v>
+      </c>
+      <c r="C43" t="s">
         <v>766</v>
-      </c>
-      <c r="C43" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>691</v>
+      </c>
+      <c r="C44" t="s">
         <v>692</v>
       </c>
-      <c r="C44" t="s">
-        <v>693</v>
-      </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>754</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" t="s">
         <v>756</v>
-      </c>
-      <c r="D45" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D46" t="s">
         <v>699</v>
-      </c>
-      <c r="D46" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>767</v>
+      </c>
+      <c r="C47" t="s">
         <v>768</v>
-      </c>
-      <c r="C47" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" t="s">
         <v>385</v>
-      </c>
-      <c r="C48" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" t="s">
         <v>379</v>
-      </c>
-      <c r="C49" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
+        <v>752</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>753</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
+        <v>336</v>
+      </c>
+      <c r="C52" t="s">
         <v>337</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>338</v>
-      </c>
-      <c r="D52" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="20" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
+        <v>785</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>786</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>700</v>
+      </c>
+      <c r="C54" t="s">
         <v>701</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>702</v>
-      </c>
-      <c r="D54" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>723</v>
+      </c>
+      <c r="C55" t="s">
+        <v>722</v>
+      </c>
+      <c r="D55" t="s">
         <v>724</v>
-      </c>
-      <c r="C55" t="s">
-        <v>723</v>
-      </c>
-      <c r="D55" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>745</v>
+      </c>
+      <c r="C56" t="s">
         <v>746</v>
-      </c>
-      <c r="C56" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>774</v>
+      </c>
+      <c r="C57" t="s">
         <v>775</v>
-      </c>
-      <c r="C57" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
+        <v>780</v>
+      </c>
+      <c r="C58" t="s">
         <v>781</v>
-      </c>
-      <c r="C58" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C59" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
+        <v>728</v>
+      </c>
+      <c r="C60" t="s">
         <v>729</v>
-      </c>
-      <c r="C60" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
+        <v>741</v>
+      </c>
+      <c r="C62" t="s">
+        <v>743</v>
+      </c>
+      <c r="D62" t="s">
         <v>742</v>
-      </c>
-      <c r="C62" t="s">
-        <v>744</v>
-      </c>
-      <c r="D62" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C63" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
+        <v>705</v>
+      </c>
+      <c r="C65" t="s">
         <v>706</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>707</v>
-      </c>
-      <c r="D65" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
+        <v>713</v>
+      </c>
+      <c r="C70" t="s">
         <v>714</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>715</v>
-      </c>
-      <c r="D70" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
+        <v>716</v>
+      </c>
+      <c r="C71" t="s">
+        <v>718</v>
+      </c>
+      <c r="D71" t="s">
         <v>717</v>
-      </c>
-      <c r="C71" t="s">
-        <v>719</v>
-      </c>
-      <c r="D71" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
+        <v>719</v>
+      </c>
+      <c r="C72" t="s">
+        <v>721</v>
+      </c>
+      <c r="D72" t="s">
         <v>720</v>
-      </c>
-      <c r="C72" t="s">
-        <v>722</v>
-      </c>
-      <c r="D72" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>339</v>
+      </c>
+      <c r="C73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D73" t="s">
         <v>340</v>
-      </c>
-      <c r="C73" t="s">
-        <v>342</v>
-      </c>
-      <c r="D73" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
+        <v>759</v>
+      </c>
+      <c r="C74" t="s">
         <v>760</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>761</v>
-      </c>
-      <c r="D74" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" t="s">
         <v>360</v>
-      </c>
-      <c r="C75" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>762</v>
+      </c>
+      <c r="C76" t="s">
         <v>763</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>764</v>
-      </c>
-      <c r="D76" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C77" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C78" t="s">
+        <v>686</v>
+      </c>
+      <c r="D78" t="s">
         <v>687</v>
-      </c>
-      <c r="D78" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
+        <v>776</v>
+      </c>
+      <c r="C79" t="s">
         <v>777</v>
-      </c>
-      <c r="C79" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>730</v>
+      </c>
+      <c r="C80" t="s">
         <v>731</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>732</v>
-      </c>
-      <c r="D80" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
+        <v>342</v>
+      </c>
+      <c r="C81" t="s">
         <v>343</v>
-      </c>
-      <c r="C81" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" t="s">
         <v>333</v>
       </c>
-      <c r="C82" t="s">
-        <v>334</v>
-      </c>
       <c r="D82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C87" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C88" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C90" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
@@ -11495,7 +12602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:E214"/>
   <sheetViews>
@@ -11517,12 +12624,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11581,2171 +12688,2171 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>956</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>812</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>1620</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1623</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>574</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D70" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>851</v>
-      </c>
       <c r="D72" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D76" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>892</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>940</v>
-      </c>
       <c r="D104" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>1054</v>
-      </c>
       <c r="D140" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="D155" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D160" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>1118</v>
-      </c>
       <c r="C165" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="D171" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="2" t="s">
         <v>1156</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>1162</v>
-      </c>
       <c r="C182" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="D185" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>1270</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D187" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>1283</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>1305</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="D194" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>1388</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>1399</v>
-      </c>
       <c r="D196" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D197" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>1405</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>1423</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>1435</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>1452</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>1457</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>1467</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>1469</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>1479</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>1485</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>1491</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>1496</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>1518</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>1525</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>1599</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>1613</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>1614</v>
       </c>
     </row>
   </sheetData>
@@ -13756,500 +14863,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBD7C48-68A5-A546-9902-757676FC1C71}">
-  <dimension ref="A2:C59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>791</v>
-      </c>
-      <c r="B5" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>795</v>
-      </c>
-      <c r="B28" t="s">
-        <v>797</v>
-      </c>
-      <c r="C28" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>790</v>
-      </c>
-      <c r="B31" t="s">
-        <v>793</v>
-      </c>
-      <c r="C31" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B34" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C42" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>809</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>944</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C70">
-    <sortCondition ref="A1:A70"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PTE RS_WFD.xlsx
+++ b/PTE RS_WFD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RR/Documents/GitHub/EnglishSummary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rr/github_repo/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAD53F1-1117-1F4D-8B32-58C369DC528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D962C0-4847-694D-A16E-E6AC4BEBD575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="26160" windowHeight="13480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10820" yWindow="700" windowWidth="16220" windowHeight="13480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1727">
   <si>
     <t>Hello, This  is Guannan Ruan</t>
   </si>
@@ -7388,13 +7388,424 @@
   </si>
   <si>
     <t>态度，姿势</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>three</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>major</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>challenges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>facing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>humanity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>our</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>food</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>energy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>environmental</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> degradation</t>
+    </r>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>/fræns/</t>
+  </si>
+  <si>
+    <t>switzerland</t>
+  </si>
+  <si>
+    <t>netherlands</t>
+  </si>
+  <si>
+    <r>
+      <t>/ˈs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>wɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rlənd/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/ˈn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eðə</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rlən</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>dz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>denmark</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>/ˈden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mɑːrk/</t>
+    </r>
+  </si>
+  <si>
+    <t>丹</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7468,6 +7879,20 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF12D3BF"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7495,7 +7920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7536,6 +7961,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8561,15 +8987,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4745B318-B4FC-EE4E-B419-78F745D8E788}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
   </cols>
@@ -8867,6 +9294,46 @@
       </c>
       <c r="B44" t="s">
         <v>1711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1726</v>
       </c>
     </row>
   </sheetData>
@@ -8979,10 +9446,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9009,6 +9476,19 @@
       <c r="A34" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="27" x14ac:dyDescent="0.4">
+      <c r="A42" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
